--- a/examples/upper Canada Land Petitions/profile.xlsx
+++ b/examples/upper Canada Land Petitions/profile.xlsx
@@ -473,25 +473,25 @@
         <v>83260</v>
       </c>
       <c r="E2" t="n">
-        <v>83257</v>
+        <v>83258</v>
       </c>
       <c r="F2" t="n">
         <v>3466120471</v>
       </c>
       <c r="G2" t="n">
-        <v>41631.58017944437</v>
+        <v>41631.0801484542</v>
       </c>
       <c r="H2" t="n">
-        <v>41630</v>
+        <v>41629.5</v>
       </c>
       <c r="I2" t="n">
-        <v>24036.31010425022</v>
+        <v>24036.59878645714</v>
       </c>
       <c r="J2" t="n">
-        <v>577744203.4276811</v>
+        <v>577758081.2211126</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>83262</v>
@@ -506,18 +506,18 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>405179</v>
+        <v>405180</v>
       </c>
       <c r="S2" t="n">
-        <v>83257</v>
+        <v>83258</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>['1', '10', '100', '1000', '10000', '10001', '10002', '10003', '10004', '10005', '10006', '10007', '10008', '10009', '1001', '10010', '10011', '10012', '10013', '10014', '10015', '10016', '10017', '10018', '10019', '1002', '10020', '10021', '10022', '10023', '10024', '10025', '10026', '10027', '10028', '10029', '1003', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '1004', '10040', '10041', '10042', '10043', '10044', '10045', '10046', '10047', '10048', '10049', '1005', '10050', '10051', '10052', '10053', '10054', '10055', '10056', '10057', '10058', '10059', '1006', '10060', '10061', '10062', '10063', '10064', '10065', '10066', '10067', '10068', '10069', '1007', '10070', '10071', '10072', '10073', '10074', '10075', '10076', '10077', '10078', '10079', '1008', '10080', '10081', '10082', '10083', '10084', '10085', '10086', '10087', '10088', '10089', '1009', '10090', '10091', '10092', '10093', '10094', '10095', '10096', '10097', '10098', '10099', '101', '1010', '10100', '10101', '10102', '10103', '10104', '10105', '10106', '10107', '10108', '10109', '1011', '10110', '10111', '10112', '10113', '10114', '10115', '10116', '10117', '10118', '10119', '1012', '10120', '10121', '10122', '10123', '10124', '10125', '10126', '10127', '10128', '10129', '1013', '10130', '10131', '10132', '10133', '10134', '10135', '10136', '10137', '10138', '10139', '1014', '10140', '10141', '10142', '10143', '10144', '10145', '10146', '10147', '10148', '10149', '1015', '10150', '10151', '10152', '10153', '10154', '10155', '10156', '10157', '10158', '10159', '1016', '10160', '10161', '10162', '10163', '10164', '10165', '10166', '10167', '10168', '10169', '1017', '10170', '10171', '10172', '10173', '10174', '10175', '10176', '10177', '10178', '10179', '1018', '10180', '10181', '10182', '10183', '10184', '10185', '10186', '10187', '10188', '10189', '1019', '10190', '10191', '10192', '10193', '10194', '10195', '10196', '10197', '10198', '10199', '102', '1020', '10200', '10201', '10202', '10203', '10204', '10205', '10206', '10207', '10208', '10209', '1021', '10210', '10211', '10212', '10213', '10214', '10215', '10216', '10217', '10218', '10219', '1022', '10220', '10221', '10222', '10223', '10224', '10225', '10226', '10227', '10228', '10229', '1023', '10230', '10231', '10232', '10233', '10234', '10235', '10236', '10237', '10238', '10239', '1024', '10240', '10241', '10242', '10243', '10244', '10245', '10246', '10247', '10248', '10249', '1025', '10250', '10251', '10252', '10253', '10254', '10255', '10256', '10257', '10258', '10259', '1026', '10260', '10261', '10262', '10263', '10264', '10265', '10266', '10267', '10268', '10269', '1027', '10270', '10271', '10272', '10273', '10274', '10275', '10276', '10277', '10278', '10279', '1028', '10280', '10281', '10282', '10283', '10284', '10285', '10286', '10287', '10288', '10289', '1029', '10290', '10291', '10292', '10293', '10294', '10295', '10296', '10297', '10298', '10299', '103', '1030', '10300', '10301', '10302', '10303', '10304', '10305', '10306', '10307', '10308', '10309', '1031', '10310', '10311', '10312', '10313', '10314', '10315', '10316', '10317', '10318', '10319', '1032', '10320', '10321', '10322', '10323', '10324', '10325', '10326', '10327', '10328', '10329', '1033', '10330', '10331', '10332', '10333', '10334', '10335', '10336', '10337', '10338', '10339', '1034', '10340', '10341', '10342', '10343', '10344', '10345', '10346', '10347', '10348', '10349', '1035', '10350', '10351', '10352', '10353', '10354', '10355', '10356', '10357', '10358', '10359', '1036', '10360', '10361', '10362', '10363', '10364', '10365', '10366', '10367', '10368', '10369', '1037', '10370', '10371', '10372', '10373', '10374', '10375', '10376', '10377', '10378', '10379', '1038', '10380', '10381', '10382', '10383', '10384', '10385', '10386', '10387', '10388', '10389', '1039', '10390', '10391', '10392', '10393', '10394', '10395', '10396', '10397', '10398', '10399', '104', '1040', '10400', '10401', '10402', '10403', '10404', '10405', '10406', '10407', '10408', '10409', '1041', '10410', '10411', '10412', '10413', '10414', '10415', '10416', '10417', '10418', '10419', '1042', '10420', '10421', '10422', '10423', '10424', '10425', '10426', '10427', '10428', '10429', '1043', '10430', '10431', '10432', '10433', '10434', '10435', '10436', '10437', '10438', '10439', '1044', '10440', '10441', '10442', '10443', '10444', '10445', '10446', '10447', '10448', '10449', '1045', '10450', '10451', '10452', '10453', '10454', '10455', '10456', '10457', '10458', '10459', '1046', '10460', '10461', '10462', '10463', '10464', '10465', '10466', '10467', '10468', '10469', '1047', '10470', '10471', '10472', '10473', '10474', '10475', '10476', '10477', '10478', '10479', '1048', '10480', '10481', '10482', '10483', '10484', '10485', '10486', '10487', '10488', '10489', '1049', '10490', '10491', '10492', '10493', '10494', '10495', '10496', '10497', '10498', '10499', '105', '1050', '10500', '10501', '10502', '10503', '10504', '10505', '10506', '10507', '10508', '10509', '1051', '10510', '10511', '10512', '10513', '10514', '10515', '10516', '10517', '10518', '10519', '1052', '10520', '10521', '10522', '10523', '10524', '10525', '10526', '10527', '10528', '10529', '1053', '10530', '10531', '10532', '10533', '10534', '10535', '10536', '10537', '10538', '10539', '1054', '10540', '10541', '10542', '10543', '10544', '10545', '10546', '10547', '10548', '10549', '1055', '10550', '10551', '10552', '10553', '10554', '10555', '10556', '10557', '10558', '10559', '1056', '10560', '10561', '10562', '10563', '10564', '10565', '10566', '10567', '10568', '10569', '1057', '10570', '10571', '10572', '10573', '10574', '10575', '10576', '10577', '10578', '10579', '1058', '10580', '10581', '10582', '10583', '10584', '10585', '10586', '10587', '10588', '10589', '1059', '10590', '10591', '10592', '10593', '10594', '10595', '10596', '10597', '10598', '10599', '106', '1060', '10600', '10601', '10602', '10603', '10604', '10605', '10606', '10607', '10608', '10609', '1061', '10610', '10611', '10612', '10613', '10614', '10615', '10616', '10617', '10618', '10619', '1062', '10620', '10621', '10622', '10623', '10624', '10625', '10626', '10627', '10628', '10629', '1063', '10630', '10631', '10632', '10633', '10634', '10635', '10636', '10637', '10638', '10639', '1064', '10640', '10641', '10642', '10643', '10644', '10645', '10646', '10647', '10648', '10649', '1065', '10650', '10651', '10652', '10653', '10654', '10655', '10656', '10657', '10658', '10659', '1066', '10660', '10661', '10662', '10663', '10664', '10665', '10666', '10667', '10668', '10669', '1067', '10670', '10671', '10672', '10673', '10674', '10675', '10676', '10677', '10678', '10679', '1068', '10680', '10681', '10682', '10683', '10684', '10685', '10686', '10687', '10688', '10689', '1069', '10690', '10691', '10692', '10693', '10694', '10695', '10696', '10697', '10698', '10699', '107', '1070', '10700', '10701', '10702', '10703', '10704', '10705', '10706', '10707', '10708', '10709', '1071', '10710', '10711', '10712', '10713', '10714', '10715', '10716', '10717', '10718', '10719', '1072', '10720', '10721', '10722', '10723', '10724', '10725', '10726', '10727', '10728', '10729', '1073', '10730', '10731', '10732', '10733', '10734', '10735', '10736', '10737', '10738', '10739', '1074', '10740', '10741', '10742', '10743', '10744', '10745', '10746', '10747', '10748', '10749', '1075', '10750', '10751', '10752', '10753', '10754', '10755', '10756', '10757', '10758', '10759', '1076', '10760', '10761', '10762', '10763', '10764', '10765', '10766', '10767', '10768', '10769', '1077', '10770', '10771', '10772', '10773', '10774', '10775', '10776', '10777', '10778', '10779', '1078', '10780', '10781', '10782', '10783', '10784', '10785', '10786', '10787', '10788', '10789', '1079', '10790', '10791', '10792', '10793', '10794', '10795', '10796', '10797', '10798', '10799', '108', '1080', '10800', '10801', '10802', '10803', '10804', '10805', '10806', '10807', '10808', '10809', '1081', '10810', '10811', '10812', '10813', '10814', '10815', '10816', '10817', '10818', '10819', '1082', '10820', '10821', '10822', '10823', '10824', '10825', '10826', '10827', '10828', '10829', '1083', '10830', '10831', '10832', '10833', '10834', '10835', '10836', '10837', '10838', '10839', '1084', '10840', '10841', '10842', '10843', '10844', '10845', '10846', '10847', '10848', '10849', '1085', '10850', '10851', '10852', '10853', '10854', '10855', '10856', '10857', '10858', '10859', '1086', '10860', '10861', '10862', '10863', '10864', '10865', '10866', '10867', '10868', '10869', '1087', '10870', '10871', '10872', '10873', '10874', '10875', '10876', '10877', '10878', '10879', '1088', '10880', '10881', '10882', '10883', '10884', '10885', '10886', '10887', '10888', '10889', '1089', '10890', '10891', '10892', '10893', '10894', '10895', '10896', '10897', '10898', '10899', '109', '1090', '10900', '10901', '10902', '10903', '10904', '10905', '10906', '10907', '10908', '10909', '1091', '10910', '10911', '10912', '10913', '10914', '10915', '10916', '10917', '10918', '10919', '1092', '10920', '10921', '10922', '10923', '10924', '10925', '10926', '10927', '10928', '10929', '1093', '10930', '10931', '10932', '10933', '10934', '10935', '10936', '10937', '10938', '10939', '1094', '10940', '10941', '10942', '10943', '10944', '10945', '10946', '10947', '10948', '10949', '1095', '10950', '10951', '10952', '10953', '10954', '10955', '10956', '10957', '10958', '10959', '1096', '10960', '10961', '10962', '10963', '10964', '10965', '10966', '10967', '10968', '10969', '1097', '10970', '10971', '10972', '10973', '10974', '10975', '10976', '10977', '10978', '10979', '1098', '10980', '10981', '10982', '10983', '10984', '10985', '10986', '10987', '10988', '10989', '1099', '10990', '10991', '10992', '10993', '10994', '10995', '10996', '10997', '10998', '10999', '11', '110', '1100', '11000', '11001', '11002', '11003', '11004', '11005', '11006', '11007', '11008', '11009', '1101', '11010', '11011', '11012', '11013', '11014', '11015', '11016', '11017', '11018', '11019', '1102', '11020', '11021', '11022', '11023', '11024', '11025', '11026', '11027', '11028', '11029', '1103', '11030', '11031', '11032', '11033', '11034', '11035', '11036', '11037', '11038', '11039', '1104', '11040', '11041', '11042', '11043', '11044', '11045', '11046', '11047', '11048', '11049', '1105', '11050', '11051', '11052', '11053', '11054', '11055', '11056', '11057', '11058', '11059', '1106', '11060', '11061', '11062', '11063', '11064', '11065', '11066', '11067', '11068', '11069', '1107', '11070', '11071', '11072', '11073', '11074', '11075', '11076', '11077', '11078', '11079', '1108', '11080', '11081', '11082', '11083', '11084', '11085', '11086', '11087', '11088', '11089', '1109', '11090', '11091', '11092', '11093', '11094', '11095', '11096', '11097', '11098', '11099', '111', '1110', '11100', '11101', '11102', '11103', '11104', '11105', '11106', '11107', '11108', '11109', '1111', '11110', '11111', '11112', '11113', '11114', '11115', '11116', '11117', '11118', '11119', '1112', '11120', '11121', '11122', '11123', '11124', '11125', '11126', '11127', '11128', '11129', '1113', '11130', '11131', '11132', '11133', '11134', '11135', '11136', '11137', '11138', '11139', '1114', '11140', '11141', '11142', '11143', '11144', '11145', '11146', '11147', '11148', '11149', '1115', '11150', '11151', '11152', '11153', '11154', '11155', '11156', '11157', '11158', '11159', '1116', '11160', '11161', '11162', '11163', '11164', '11165', '11166', '11167', '11168', '11169', '1117', '11170', '11171', '11172', '11173', '11174', '11175', '11176', '11177', '11178', '11179', '1118', '11180', '11181', '11182', '11183', '11184', '11185', '11186', '11187', '11188', '11189', '1119', '11190', '11191', '11192', '11193', '11194', '11195', '11196', '11197', '11198', '11199', '112', '1120', '11200', '11201', '11202', '11203', '11204', '11205', '11206', '11207', '11208', '11209', '1121', '11210', '11211', '11212', '11213', '11214', '11215', '11216', '11217', '11218', '11219', '1122', '11220', '11221', '11222', '11223', '11224', '11225', '11226', '11227', '11228', '11229', '1123', '11230', '11231', '11232', '11233', '11234', '11235', '11236', '11237', '11238', '11239', '1124', '11240', '11241', '11242', '11243', '11244', '11245', '11246', '11247', '11248', '11249', '1125', '11250', '11251', '11252', '11253', '11254', '11255', '11256', '11257', '11258', '11259', '1126', '11260', '11261', '11262', '11263', '11264', '11265', '11266', '11267', '11268', '11269', '1127', '11270', '11271', '11272', '11273', '11274', '11275', '11276', '11277', '11278', '11279', '1128', '11280', '11281', '11282', '11283', '11284', '11285', '11286', '11287', '11288', '11289', '1129', '11290', '11291', '11292', '11293', '11294', '11295', '11296', '11297', '11298', '11299', '113', '1130', '11300', '11301', '11302', '11303', '11304', '11305', '11306', '11307', '11308', '11309', '1131', '11310', '11311', '11312', '11313', '11314', '11315', '11316', '11317', '11318', '11319', '1132', '11320', '11321', '11322', '11323', '11324', '11325', '11326', '11327', '11328', '11329', '1133', '11330', '11331', '11332', '11333', '11334', '11335', '11336', '11337', '11338', '11339', '1134', '11340', '11341', '11342', '11343', '11344', '11345', '11346', '11347', '11348', '11349', '1135', '11350', '11351', '11352', '11353', '11354', '11355', '11356', '11357', '11358', '11359', '1136', '11360', '11361', '11362', '11363', '11364', '11365', '11366', '11367', '11368', '11369', '1137', '11370', '11371', '11372', '11373', '11374', '11375', '11376', '11377', '11378', '11379', '1138', '11380', '11381', '11382', '11383', '11384', '11385', '11386', '11387', '11388', '11389', '1139', '11390', '11391', '11392', '11393', '11394', '11395', '11396', '11397', '11398', '11399', '114', '1140', '11400', '11401', '11402', '11403', '11404', '11405', '11406', '11407', '11408', '11409', '1141', '11410', '11411', '11412', '11413', '11414', '11415', '11416', '11417', '11418', '11419', '1142', '11420', '11421', '11422', '11423', '11424', '11425', '11426', '11427', '11428', '11429', '1143', '11430', '11431', '11432', '11433', '11434', '11435', '11436', '11437', '11438', '11439', '1144', '11440', '11441', '11442', '11443', '11444', '11445', '11446', '11447', '11448', '11449', '1145', '11450', '11451', '11452', '11453', '11454', '11455', '11456', '11457', '11458', '11459', '1146', '11460', '11461', '11462', '11463', '11464', '11465', '11466', '11467', '11468', '11469', '1147', '11470', '11471', '11472', '11473', '11474', '11475', '11476', '11477', '11478', '11479', '1148', '11480', '11481', '11482', '11483', '11484', '11485', '11486', '11487', '11488', '11489', '1149', '11490', '11491', '11492', '11493', '11494', '11495', '11496', '11497', '11498', '11499', '115', '1150', '11500', '11501', '11502', '11503', '11504', '11505', '11506', '11507', '11508', '11509', '1151', '11510', '11511', '11512', '11513', '11514', '11515', '11516', '11517', '11518', '11519', '1152', '11520', '11521', '11522', '11523', '11524', '11525', '11526', '11527', '11528', '11529', '1153', '11530', '11531', '11532', '11533', '11534', '11535', '11536', '11537', '11538', '11539', '1154', '11540', '11541', '11542', '11543', '11544', '11545', '11546', '11547', '11548', '11549', '1155', '11550', '11551', '11552', '11553', '11554', '11555', '11556', '11557', '11558', '11559', '1156', '11560', '11561', '11562', '11563', '11564', '11565', '11566', '11567', '11568', '11569', '1157', '11570', '11571', '11572', '11573', '11574', '11575', '11576', '11577', '11578', '11579', '1158', '11580', '11581', '11582', '11583', '11584', '11585', '11586', '11587', '11588', '11589', '1159', '11590', '11591', '11592', '11593', '11594', '11595', '11596', '11597', '11598', '11599', '116', '1160', '11600', '11601', '11602', '11603', '11604', '11605', '11606', '11607', '11608', '11609', '1161', '11610', '11611', '11612', '11613', '11614', '11615', '11616', '11617', '11618', '11619', '1162', '11620', '11621', '11622', '11623', '11624', '11625', '11626', '11627', '11628', '11629', '1163', '11630', '11631', '11632', '11633', '11634', '11635', '11636', '11637', '11638', '11639', '1164', '11640', '11641', '11642', '11643', '11644', '11645', '11646', '11647', '11648', '11649', '1165', '11650', '11651', '11652', '11653', '11654', '11655', '11656', '11657', '11658', '11659', '1166', '11660', '11661', '11662', '11663', '11664', '11665', '11666', '11667', '11668', '11669', '1167', '11670', '11671', '11672', '11673', '11674', '11675', '11676', '11677', '11678', '11679', '1168', '11680', '11681', '11682', '11683', '11684', '11685', '11686', '11687', '11688', '11689', '1169', '11690', '11691', '11692', '11693', '11694', '11695', '11696', '11697', '11698', '11699', '117', '1170', '11700', '11701', '11702', '11703', '11704', '11705', '11706', '11707', '11708', '11709', '1171', '11710', '11711', '11712', '11713', '11714', '11715', '11716', '11717', '11718', '11719', '1172', '11720', '11721', '11722', '11723', '11724', '11725', '11726', '11727', '11728', '11729', '1173', '11730', '11731', '11732', '11733', '11734', '11735', '11736', '11737', '11738', '11739', '1174', '11740', '11741', '11742', '11743', '11744', '11745', '11746', '11747', '11748', '11749', '1175', '11750', '11751', '11752', '11753', '11754', '11755', '11756', '11757', '11758', '11759', '1176', '11760', '11761', '11762', '11763', '11764', '11765', '11766', '11767', '11768', '11769', '1177', '11770', '11771', '11772', '11773', '11774', '11775', '11776', '11777', '11778', '11779', '1178', '11780', '11781', '11782', '11783', '11784', '11785', '11786', '11787', '11788', '11789', '1179', '11790', '11791', '11792', '11793', '11794', '11795', '11796', '11797', '11798', '11799', '118', '1180', '11800', '11801', '11802', '11803', '11804', '11805', '11806', '11807', '11808', '11809', '1181', '11810', '11811', '11812', '11813', '11814', '11815', '11816', '11817', '11818', '11819', '1182', '11820', '11821', '11822', '11823', '11824', '11825', '11826', '11827', '11828', '11829', '1183', '11830', '11831', '11832', '11833', '11834', '11835', '11836', '11837', '11838', '11839', '1184', '11840', '11841', '11842', '11843', '11844', '11845', '11846', '11847', '11848', '11849', '1185', '11850', '11851', '11852', '11853', '11854', '11855', '11856', '11857', '11858', '11859', '1186', '11860', '11861', '11862', '11863', '11864', '11865', '11866', '11867', '11868', '11869', '1187', '11870', '11871', '11872', '11873', '11874', '11875', '11876', '11877', '11878', '11879', '1188', '11880', '11881', '11882', '11883', '11884', '11885', '11886', '11887', '11888', '11889', '1189', '11890', '11891', '11892', '11893', '11894', '11895', '11896', '11897', '11898', '11899', '119', '1190', '11900', '11901', '11902', '11903', '11904', '11905', '11906', '11907', '11908', '11909', '1191', '11910', '11911', '11912', '11913', '11914', '11915', '11916', '11917', '11918', '11919', '1192', '11920', '11921', '11922', '11923', '11924', '11925', '11926', '11927', '11928', '11929', '1193', '11930', '11931', '11932', '11933', '11934', '11935', '11936', '11937', '11938', '11939', '1194', '11940', '11941', '11942', '11943', '11944', '11945', '11946', '11947', '11948', '11949', '1195', '11950', '11951', '11952', '11953', '11954', '11955', '11956', '11957', '11958', '11959', '1196', '11960', '11961', '11962', '11963', '11964', '11965', '11966', '11967', '11968', '11969', '1197', '11970', '11971', '11972', '11973', '11974', '11975', '11976', '11977', '11978', '11979', '1198', '11980', '11981', '11982', '11983', '11984', '11985', '11986', '11987', '11988', '11989', '1199', '11990', '11991', '11992', '11993', '11994', '11995', '11996', '11997', '11998', '11999', '12', '120', '1200', '12000', '12001', '12002', '12003', '12004', '12005', '12006', '12007', '12008', '12009', '1201', '12010', '12011', '12012', '12013', '12014', '12015', '12016', '12017', '12018', '12019', '1202', '12020', '12021', '12022', '12023', '12024', '12025', '12026', '12027', '12028', '12029', '1203', '12030', '12031', '12032', '12033', '12034', '12035', '12036', '12037', '12038', '12039', '1204', '12040', '12041', '12042', '12043', '12044', '12045', '12046', '12047', '12048', '12049', '1205', '12050', '12051', '12052', '12053', '12054', '12055', '12056', '12057', '12058', '12059', '1206', '12060', '12061', '12062', '12063', '12064', '12065', '12066', '12067', '12068', '12069', '1207', '12070', '12071', '12072', '12073', '12074', '12075', '12076', '12077', '12078', '12079', '1208', '12080', '12081', '12082', '12083', '12084', '12085', '12086', '12087', '12088', '12089', '1209', '12090', '12091', '12092', '12093', '12094', '12095', '12096', '12097', '12098', '12099', '121', '1210', '12100', '12101', '12102', '12103', '12104', '12105', '12106', '12107', '12108', '12109', '1211', '12110', '12111', '12112', '12113', '12114', '12115', '12116', '12117', '12118', '12119', '1212', '12120', '12121', '12122', '12123', '12124', '12125', '12126', '12127', '12128', '12129', '1213', '12130', '12131', '12132', '12133', '12134', '12135', '12136', '12137', '12138', '12139', '1214', '12140', '12141', '12142', '12143', '12144', '12145', '12146', '12147', '12148', '12149', '1215', '12150', '12151', '12152', '12153', '12154', '12155', '12156', '12157', '12158', '12159', '1216', '12160', '12161', '12162', '12163', '12164', '12165', '12166', '12167', '12168', '12169', '1217', '12170', '12171', '12172', '12173', '12174', '12175', '12176', '12177', '12178', '12179', '1218', '12180', '12181', '12182', '12183', '12184', '12185', '12186', '12187', '12188', '12189', '1219', '12190', '12191', '12192', '12193', '12194', '12195', '12196', '12197', '12198', '12199', '122', '1220', '12200', '12201', '12202', '12203', '12204', '12205', '12206', '12207', '12208', '12209', '1221', '12210', '12211', '12212', '12213', '12214', '12215', '12216', '12217', '12218', '12219', '1222', '12220', '12221', '12222', '12223', '12224', '12225', '12226', '12227', '12228', '12229', '1223', '12230', '12231', '12232', '12233', '12234', '12235', '12236', '12237', '12238', '12239', '1224', '12240', '12241', '12242', '12243', '12244', '12245', '12246', '12247', '12248', '12249', '1225', '12250', '12251', '12252', '12253', '12254', '12255', '12256', '12257', '12258', '12259', '1226', '12260', '12261', '12262', '12263', '12264', '12265', '12266', '12267', '12268', '12269', '1227', '12270', '12271', '12272', '12273', '12274', '12275', '12276', '12277', '12278', '12279', '1228', '12280', '12281', '12282', '12283', '12284', '12285', '12286', '12287', '12288', '12289', '1229', '12290', '12291', '12292', '12293', '12294', '12295', '12296', '12297', '12298', '12299', '123', '1230', '12300', '12301', '12302', '12303', '12304', '12305', '12306', '12307', '12308', '12309', '1231', '12310', '12311', '12312', '12313', '12314', '12315', '12316', '12317', '12318', '12319', '1232', '12320', '12321', '12322', '12323', '12324', '12325', '12326', '12327', '12328', '12329', '1233', '12330', '12331', '12332', '12333', '12334', '12335', '12336', '12337', '12338', '12339', '1234', '12340', '12341', '12342', '12343', '12344', '12345', '12346', '12347', '12348', '12349', '1235', '12350', '12351', '12352', '12353', '12354', '12355', '12356', '12357', '12358', '12359', '1236', '12360', '12361', '12362', '12363', '12364', '12365', '12366', '12367', '12368', '12369', '1237', '12370', '12371', '12372', '12373', '12374', '12375', '12376', '12377', '12378', '12379', '1238', '12380', '12381', '12382', '12383', '12384', '12385', '12386', '12387', '12388', '12389', '1239', '12390', '12391', '12392', '12393', '12394', '12395', '12396', '12397', '12398', '12399', '124', '1240', '12400', '12401', '12402', '12403', '12404', '12405', '12406', '12407', '12408', '12409', '1241', '12410', '12411', '12412', '12413', '12414', '12415', '12416', '12417', '12418', '12419', '1242', '12420', '12421', '12422', '12423', '12424', '12425', '12426', '12427', '12428', '12429', '1243', '12430', '12431', '12432', '12433', '12434', '12435', '12436', '12437', '12438', '12439', '1244', '12440', '12441', '12442', '12443', '12444', '12445', '12446', '12447', '12448', '12449', '1245', '12450', '12451', '12452', '12453', '12454', '12455', '12456', '12457', '12458', '12459', '1246', '12460', '12461', '12462', '12463', '12464', '12465', '12466', '12467', '12468', '12469', '1247', '12470', '12471', '12472', '12473', '12474', '12475', '12476', '12477', '12478', '12479', '1248', '12480', '12481', '12482', '12483', '12484', '12485', '12486', '12487', '12488', '12489', '1249', '12490', '12491', '12492', '12493', '12494', '12495', '12496', '12497', '12498', '12499', '125', '1250', '12500', '12501', '12502', '12503', '12504', '12505', '12506', '12507', '12508', '12509', '1251', '12510', '12511', '12512', '12513', '12514', '12515', '12516', '12517', '12518', '12519', '1252', '12520', '12521', '12522', '12523', '12524', '12525', '12526', '12527', '12528', '12529', '1253', '12530', '12531', '12532', '12533', '12534', '12535', '12536', '12537', '12538', '12539', '1254', '12540', '12541', '12542', '12543', '12544', '12545', '12546', '12547', '12548', '12549', '1255', '12550', '12551', '12552', '12553', '12554', '12555', '12556', '12557', '12558', '12559', '1256', '12560', '12561', '12562', '12563', '12564', '12565', '12566', '12567', '12568', '12569', '1257', '12570', '12571', '12572', '12573', '12574', '12575', '12576', '12577', '12578', '12579', '1258', '12580', '12581', '12582', '12583', '12584', '12585', '12586', '12587', '12588', '12589', '1259', '12590', '12591', '12592', '12593', '12594', '12595', '12596', '12597', '12598', '12599', '126', '1260', '12600', '12601', '12602', '12603', '12604', '12605', '12606', '12607', '12608', '12609', '1261', '12610', '12611', '12612', '12613', '12614', '12615', '12616', '12617', '12618', '12619', '1262', '12620', '12621', '12622', '12623', '12624', '12625', '12626', '12627', '12628', '12629', '1263', '12630', '12631', '12632', '12633', '12634', '12635', '12636', '12637', '12638', '12639', '1264', '12640', '12641', '12642', '12643', '12644', '12645', '12646', '12647', '12648', '12649', '1265', '12650', '12651', '12652', '12653', '12654', '12655', '12656', '12657', '12658', '12659', '1266', '12660', '12661', '12662', '12663', '12664', '12665', '12666', '12667', '12668', '12669', '1267', '12670', '12671', '12672', '12673', '12674', '12675', '12676', '12677', '12678', '12679', '1268', '12680', '12681', '12682', '12683', '12684', '12685', '12686', '12687', '12688', '12689', '1269', '12690', '12691', '12692', '12693', '12694', '12695', '12696', '12697', '12698', '12699', '127', '1270', '12700', '12701', '12702', '12703', '12704', '12705', '12706', '12707', '12708', '12709', '1271', '12710', '12711', '12712', '12713', '12714', '12715', '12716', '12717', '12718', '12719', '1272', '12720', '12721', '12722', '12723', '12724', '12725', '12726', '12727', '12728', '12729', '1273', '12730', '12731', '12732', '12733', '12734', '12735', '12736', '12737', '12738', '12739', '1274', '12740', '12741', '12742', '12743', '12744', '12745', '12746', '12747', '12748', '12749', '1275', '12750', '12751', '12752', '12753', '12754', '12755', '12756', '12757', '12758', '12759', '1276', '12760', '12761', '12762', '12763', '12764', '12765', '12766', '12767', '12768', '12769', '1277', '12770', '12771', '12772', '12773', '12774', '12775', '12776', '12777', '12778', '12779', '1278', '12780', '12781', '12782', '12783', '12784', '12785', '12786', '12787', '12788', '12789', '1279', '12790', '12791', '12792', '12793', '12794', '12795', '12796', '12797', '12798', '12799', '128', '1280', '12800', '12801', '12802', '12803', '12804', '12805', '12806', '12807', '12808', '12809', '1281', '12810', '12811', '12812', '12813', '12814', '12815', '12816', '12817', '12818', '12819', '1282', '12820', '12821', '12822', '12823', '12824', '12825', '12826', '12827', '12828', '12829', '1283', '12830', '12831', '12832', '12833', '12834', '12835', '12836', '12837', '12838', '12839', '1284', '12840', '12841', '12842', '12843', '12844', '12845', '12846', '12847', '12848', '12849', '1285', '12850', '12851', '12852', '12853', '12854', '12855', '12856', '12857', '12858', '12859', '1286', '12860', '12861', '12862', '12863', '12864', '12865', '12866', '12867', '12868', '12869', '1287', '12870', '12871', '12872', '12873', '12874', '12875', '12876', '12877', '12878', '12879', '1288', '12880', '12881', '12882', '12883', '12884', '12885', '12886', '12887', '12888', '12889', '1289', '12890', '12891', '12892', '12893', '12894', '12895', '12896', '12897', '12898', '12899', '129', '1290', '12900', '12901', '12902', '12903', '12904', '12905', '12906', '12907', '12908', '12909', '1291', '12910', '12911', '12912', '12913', '12914', '12915', '12916', '12917', '12918', '12919', '1292', '12920', '12921', '12922', '12923', '12924', '12925', '12926', '12927', '12928', '12929', '1293', '12930', '12931', '12932', '12933', '12934', '12935', '12936', '12937', '12938', '12939', '1294', '12940', '12941', '12942', '12943', '12944', '12945', '12946', '12947', '12948', '12949', '1295', '12950', '12951', '12952', '12953', '12954', '12955', '12956', '12957', '12958', '12959', '1296', '12960', '12961', '12962', '12963', '12964', '12965', '12966', '12967', '12968', '12969', '1297', '12970', '12971', '12972', '12973', '12974', '12975', '12976', '12977', '12978', '12979', '1298', '12980', '12981', '12982', '12983', '12984', '12985', '12986', '12987', '12988', '12989', '1299', '12990', '12991', '12992', '12993', '12994', '12995', '12996', '12997', '12998', '12999', '13', '130', '1300', '13000', '13001', '13002', '13003', '13004', '13005', '13006', '13007', '13008', '13009', '1301', '13010', '13011', '13012', '13013', '13014', '13015', '13016', '13017', '13018', '13019', '1302', '13020', '13021', '13022', '13023', '13024', '13025', '13026', '13027', '13028', '13029', '1303', '13030', '13031', '13032', '13033', '13034', '13035', '13036', '13037', '13038', '13039', '1304', '13040', '13041', '13042', '13043', '13044', '13045', '13046', '13047', '13048', '13049', '1305', '13050', '13051', '13052', '13053', '13054', '13055', '13056', '13057', '13058', '13059', '1306', '13060', '13061', '13062', '13063', '13064', '13065', '13066', '13067', '13068', '13069', '1307', '13070', '13071', '13072', '13073', '13074', '13075', '13076', '13077', '13078', '13079', '1308', '13080', '13081', '13082', '13083', '13084', '13085', '13086', '13087', '13088', '13089', '1309', '13090', '13091', '13092', '13093', '13094', '13095', '13096', '13097', '13098', '13099', '131', '1310', '13100', '13101', '13102', '13103', '13104', '13105', '13106', '13107', '13108', '13109', '1311', '13110', '13111', '13112', '13113', '13114', '13115', '13116', '13117', '13118', '13119', '1312', '13120', '13121', '13122', '13123', '13124', '13125', '13126', '13127', '13128', '13129', '1313', '13130', '13131', '13132', '13133', '13134', '13135', '13136', '13137', '13138', '13139', '1314', '13140', '13141', '13142', '13143', '13144', '13145', '13146', '13147', '13148', '13149', '1315', '13150', '13151', '13152', '13153', '13154', '13155', '13156', '13157', '13158', '13159', '1316', '13160', '13161', '13162', '13163', '13164', '13165', '13166', '13167', '13168', '13169', '1317', '13170', '13171', '13172', '13173', '13174', '13175', '13176', '13177', '13178', '13179', '1318', '13180', '13181', '13182', '13183', '13184', '13185', '13186', '13187', '13188', '13189', '1319', '13190', '13191', '13192', '13193', '13194', '13195', '13196', '13197', '13198', '13199', '132', '1320', '13200', '13201', '13202', '13203', '13204', '13205', '13206', '13207', '13208', '13209', '1321', '13210', '13211', '13212', '13213', '13214', '13215', '13216', '13217', '13218', '13219', '1322', '13220', '13221', '13222', '13223', '13224', '13225', '13226', '13227', '13228', '13229', '1323', '13230', '13231', '13232', '13233', '13234', '13235', '13236', '13237', '13238', '13239', '1324', '13240', '13241', '13242', '13243', '13244', '13245', '13246', '13247', '13248', '13249', '1325', '13250', '13251', '13252', '13253', '13254', '13255', '13256', '13257', '13258', '13259', '1326', '13260', '13261', '13262', '13263', '13264', '13265', '13266', '13267', '13268', '13269', '1327', '13270', '13271', '13272', '13273', '13274', '13275', '13276', '13277', '13278', '13279', '1328', '13280', '13281', '13282', '13283', '13284', '13285', '13286', '13287', '13288', '13289', '1329', '13290', '13291', '13292', '13293', '13294', '13295', '13296', '13297', '13298', '13299', '133', '1330', '13300', '13301', '13302', '13303', '13304', '13305', '13306', '13307', '13308', '13309', '1331', '13310', '13311', '13312', '13313', '13314', '13315',</t>
+          <t>['0', '1', '10', '100', '1000', '10000', '10001', '10002', '10003', '10004', '10005', '10006', '10007', '10008', '10009', '1001', '10010', '10011', '10012', '10013', '10014', '10015', '10016', '10017', '10018', '10019', '1002', '10020', '10021', '10022', '10023', '10024', '10025', '10026', '10027', '10028', '10029', '1003', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '1004', '10040', '10041', '10042', '10043', '10044', '10045', '10046', '10047', '10048', '10049', '1005', '10050', '10051', '10052', '10053', '10054', '10055', '10056', '10057', '10058', '10059', '1006', '10060', '10061', '10062', '10063', '10064', '10065', '10066', '10067', '10068', '10069', '1007', '10070', '10071', '10072', '10073', '10074', '10075', '10076', '10077', '10078', '10079', '1008', '10080', '10081', '10082', '10083', '10084', '10085', '10086', '10087', '10088', '10089', '1009', '10090', '10091', '10092', '10093', '10094', '10095', '10096', '10097', '10098', '10099', '101', '1010', '10100', '10101', '10102', '10103', '10104', '10105', '10106', '10107', '10108', '10109', '1011', '10110', '10111', '10112', '10113', '10114', '10115', '10116', '10117', '10118', '10119', '1012', '10120', '10121', '10122', '10123', '10124', '10125', '10126', '10127', '10128', '10129', '1013', '10130', '10131', '10132', '10133', '10134', '10135', '10136', '10137', '10138', '10139', '1014', '10140', '10141', '10142', '10143', '10144', '10145', '10146', '10147', '10148', '10149', '1015', '10150', '10151', '10152', '10153', '10154', '10155', '10156', '10157', '10158', '10159', '1016', '10160', '10161', '10162', '10163', '10164', '10165', '10166', '10167', '10168', '10169', '1017', '10170', '10171', '10172', '10173', '10174', '10175', '10176', '10177', '10178', '10179', '1018', '10180', '10181', '10182', '10183', '10184', '10185', '10186', '10187', '10188', '10189', '1019', '10190', '10191', '10192', '10193', '10194', '10195', '10196', '10197', '10198', '10199', '102', '1020', '10200', '10201', '10202', '10203', '10204', '10205', '10206', '10207', '10208', '10209', '1021', '10210', '10211', '10212', '10213', '10214', '10215', '10216', '10217', '10218', '10219', '1022', '10220', '10221', '10222', '10223', '10224', '10225', '10226', '10227', '10228', '10229', '1023', '10230', '10231', '10232', '10233', '10234', '10235', '10236', '10237', '10238', '10239', '1024', '10240', '10241', '10242', '10243', '10244', '10245', '10246', '10247', '10248', '10249', '1025', '10250', '10251', '10252', '10253', '10254', '10255', '10256', '10257', '10258', '10259', '1026', '10260', '10261', '10262', '10263', '10264', '10265', '10266', '10267', '10268', '10269', '1027', '10270', '10271', '10272', '10273', '10274', '10275', '10276', '10277', '10278', '10279', '1028', '10280', '10281', '10282', '10283', '10284', '10285', '10286', '10287', '10288', '10289', '1029', '10290', '10291', '10292', '10293', '10294', '10295', '10296', '10297', '10298', '10299', '103', '1030', '10300', '10301', '10302', '10303', '10304', '10305', '10306', '10307', '10308', '10309', '1031', '10310', '10311', '10312', '10313', '10314', '10315', '10316', '10317', '10318', '10319', '1032', '10320', '10321', '10322', '10323', '10324', '10325', '10326', '10327', '10328', '10329', '1033', '10330', '10331', '10332', '10333', '10334', '10335', '10336', '10337', '10338', '10339', '1034', '10340', '10341', '10342', '10343', '10344', '10345', '10346', '10347', '10348', '10349', '1035', '10350', '10351', '10352', '10353', '10354', '10355', '10356', '10357', '10358', '10359', '1036', '10360', '10361', '10362', '10363', '10364', '10365', '10366', '10367', '10368', '10369', '1037', '10370', '10371', '10372', '10373', '10374', '10375', '10376', '10377', '10378', '10379', '1038', '10380', '10381', '10382', '10383', '10384', '10385', '10386', '10387', '10388', '10389', '1039', '10390', '10391', '10392', '10393', '10394', '10395', '10396', '10397', '10398', '10399', '104', '1040', '10400', '10401', '10402', '10403', '10404', '10405', '10406', '10407', '10408', '10409', '1041', '10410', '10411', '10412', '10413', '10414', '10415', '10416', '10417', '10418', '10419', '1042', '10420', '10421', '10422', '10423', '10424', '10425', '10426', '10427', '10428', '10429', '1043', '10430', '10431', '10432', '10433', '10434', '10435', '10436', '10437', '10438', '10439', '1044', '10440', '10441', '10442', '10443', '10444', '10445', '10446', '10447', '10448', '10449', '1045', '10450', '10451', '10452', '10453', '10454', '10455', '10456', '10457', '10458', '10459', '1046', '10460', '10461', '10462', '10463', '10464', '10465', '10466', '10467', '10468', '10469', '1047', '10470', '10471', '10472', '10473', '10474', '10475', '10476', '10477', '10478', '10479', '1048', '10480', '10481', '10482', '10483', '10484', '10485', '10486', '10487', '10488', '10489', '1049', '10490', '10491', '10492', '10493', '10494', '10495', '10496', '10497', '10498', '10499', '105', '1050', '10500', '10501', '10502', '10503', '10504', '10505', '10506', '10507', '10508', '10509', '1051', '10510', '10511', '10512', '10513', '10514', '10515', '10516', '10517', '10518', '10519', '1052', '10520', '10521', '10522', '10523', '10524', '10525', '10526', '10527', '10528', '10529', '1053', '10530', '10531', '10532', '10533', '10534', '10535', '10536', '10537', '10538', '10539', '1054', '10540', '10541', '10542', '10543', '10544', '10545', '10546', '10547', '10548', '10549', '1055', '10550', '10551', '10552', '10553', '10554', '10555', '10556', '10557', '10558', '10559', '1056', '10560', '10561', '10562', '10563', '10564', '10565', '10566', '10567', '10568', '10569', '1057', '10570', '10571', '10572', '10573', '10574', '10575', '10576', '10577', '10578', '10579', '1058', '10580', '10581', '10582', '10583', '10584', '10585', '10586', '10587', '10588', '10589', '1059', '10590', '10591', '10592', '10593', '10594', '10595', '10596', '10597', '10598', '10599', '106', '1060', '10600', '10601', '10602', '10603', '10604', '10605', '10606', '10607', '10608', '10609', '1061', '10610', '10611', '10612', '10613', '10614', '10615', '10616', '10617', '10618', '10619', '1062', '10620', '10621', '10622', '10623', '10624', '10625', '10626', '10627', '10628', '10629', '1063', '10630', '10631', '10632', '10633', '10634', '10635', '10636', '10637', '10638', '10639', '1064', '10640', '10641', '10642', '10643', '10644', '10645', '10646', '10647', '10648', '10649', '1065', '10650', '10651', '10652', '10653', '10654', '10655', '10656', '10657', '10658', '10659', '1066', '10660', '10661', '10662', '10663', '10664', '10665', '10666', '10667', '10668', '10669', '1067', '10670', '10671', '10672', '10673', '10674', '10675', '10676', '10677', '10678', '10679', '1068', '10680', '10681', '10682', '10683', '10684', '10685', '10686', '10687', '10688', '10689', '1069', '10690', '10691', '10692', '10693', '10694', '10695', '10696', '10697', '10698', '10699', '107', '1070', '10700', '10701', '10702', '10703', '10704', '10705', '10706', '10707', '10708', '10709', '1071', '10710', '10711', '10712', '10713', '10714', '10715', '10716', '10717', '10718', '10719', '1072', '10720', '10721', '10722', '10723', '10724', '10725', '10726', '10727', '10728', '10729', '1073', '10730', '10731', '10732', '10733', '10734', '10735', '10736', '10737', '10738', '10739', '1074', '10740', '10741', '10742', '10743', '10744', '10745', '10746', '10747', '10748', '10749', '1075', '10750', '10751', '10752', '10753', '10754', '10755', '10756', '10757', '10758', '10759', '1076', '10760', '10761', '10762', '10763', '10764', '10765', '10766', '10767', '10768', '10769', '1077', '10770', '10771', '10772', '10773', '10774', '10775', '10776', '10777', '10778', '10779', '1078', '10780', '10781', '10782', '10783', '10784', '10785', '10786', '10787', '10788', '10789', '1079', '10790', '10791', '10792', '10793', '10794', '10795', '10796', '10797', '10798', '10799', '108', '1080', '10800', '10801', '10802', '10803', '10804', '10805', '10806', '10807', '10808', '10809', '1081', '10810', '10811', '10812', '10813', '10814', '10815', '10816', '10817', '10818', '10819', '1082', '10820', '10821', '10822', '10823', '10824', '10825', '10826', '10827', '10828', '10829', '1083', '10830', '10831', '10832', '10833', '10834', '10835', '10836', '10837', '10838', '10839', '1084', '10840', '10841', '10842', '10843', '10844', '10845', '10846', '10847', '10848', '10849', '1085', '10850', '10851', '10852', '10853', '10854', '10855', '10856', '10857', '10858', '10859', '1086', '10860', '10861', '10862', '10863', '10864', '10865', '10866', '10867', '10868', '10869', '1087', '10870', '10871', '10872', '10873', '10874', '10875', '10876', '10877', '10878', '10879', '1088', '10880', '10881', '10882', '10883', '10884', '10885', '10886', '10887', '10888', '10889', '1089', '10890', '10891', '10892', '10893', '10894', '10895', '10896', '10897', '10898', '10899', '109', '1090', '10900', '10901', '10902', '10903', '10904', '10905', '10906', '10907', '10908', '10909', '1091', '10910', '10911', '10912', '10913', '10914', '10915', '10916', '10917', '10918', '10919', '1092', '10920', '10921', '10922', '10923', '10924', '10925', '10926', '10927', '10928', '10929', '1093', '10930', '10931', '10932', '10933', '10934', '10935', '10936', '10937', '10938', '10939', '1094', '10940', '10941', '10942', '10943', '10944', '10945', '10946', '10947', '10948', '10949', '1095', '10950', '10951', '10952', '10953', '10954', '10955', '10956', '10957', '10958', '10959', '1096', '10960', '10961', '10962', '10963', '10964', '10965', '10966', '10967', '10968', '10969', '1097', '10970', '10971', '10972', '10973', '10974', '10975', '10976', '10977', '10978', '10979', '1098', '10980', '10981', '10982', '10983', '10984', '10985', '10986', '10987', '10988', '10989', '1099', '10990', '10991', '10992', '10993', '10994', '10995', '10996', '10997', '10998', '10999', '11', '110', '1100', '11000', '11001', '11002', '11003', '11004', '11005', '11006', '11007', '11008', '11009', '1101', '11010', '11011', '11012', '11013', '11014', '11015', '11016', '11017', '11018', '11019', '1102', '11020', '11021', '11022', '11023', '11024', '11025', '11026', '11027', '11028', '11029', '1103', '11030', '11031', '11032', '11033', '11034', '11035', '11036', '11037', '11038', '11039', '1104', '11040', '11041', '11042', '11043', '11044', '11045', '11046', '11047', '11048', '11049', '1105', '11050', '11051', '11052', '11053', '11054', '11055', '11056', '11057', '11058', '11059', '1106', '11060', '11061', '11062', '11063', '11064', '11065', '11066', '11067', '11068', '11069', '1107', '11070', '11071', '11072', '11073', '11074', '11075', '11076', '11077', '11078', '11079', '1108', '11080', '11081', '11082', '11083', '11084', '11085', '11086', '11087', '11088', '11089', '1109', '11090', '11091', '11092', '11093', '11094', '11095', '11096', '11097', '11098', '11099', '111', '1110', '11100', '11101', '11102', '11103', '11104', '11105', '11106', '11107', '11108', '11109', '1111', '11110', '11111', '11112', '11113', '11114', '11115', '11116', '11117', '11118', '11119', '1112', '11120', '11121', '11122', '11123', '11124', '11125', '11126', '11127', '11128', '11129', '1113', '11130', '11131', '11132', '11133', '11134', '11135', '11136', '11137', '11138', '11139', '1114', '11140', '11141', '11142', '11143', '11144', '11145', '11146', '11147', '11148', '11149', '1115', '11150', '11151', '11152', '11153', '11154', '11155', '11156', '11157', '11158', '11159', '1116', '11160', '11161', '11162', '11163', '11164', '11165', '11166', '11167', '11168', '11169', '1117', '11170', '11171', '11172', '11173', '11174', '11175', '11176', '11177', '11178', '11179', '1118', '11180', '11181', '11182', '11183', '11184', '11185', '11186', '11187', '11188', '11189', '1119', '11190', '11191', '11192', '11193', '11194', '11195', '11196', '11197', '11198', '11199', '112', '1120', '11200', '11201', '11202', '11203', '11204', '11205', '11206', '11207', '11208', '11209', '1121', '11210', '11211', '11212', '11213', '11214', '11215', '11216', '11217', '11218', '11219', '1122', '11220', '11221', '11222', '11223', '11224', '11225', '11226', '11227', '11228', '11229', '1123', '11230', '11231', '11232', '11233', '11234', '11235', '11236', '11237', '11238', '11239', '1124', '11240', '11241', '11242', '11243', '11244', '11245', '11246', '11247', '11248', '11249', '1125', '11250', '11251', '11252', '11253', '11254', '11255', '11256', '11257', '11258', '11259', '1126', '11260', '11261', '11262', '11263', '11264', '11265', '11266', '11267', '11268', '11269', '1127', '11270', '11271', '11272', '11273', '11274', '11275', '11276', '11277', '11278', '11279', '1128', '11280', '11281', '11282', '11283', '11284', '11285', '11286', '11287', '11288', '11289', '1129', '11290', '11291', '11292', '11293', '11294', '11295', '11296', '11297', '11298', '11299', '113', '1130', '11300', '11301', '11302', '11303', '11304', '11305', '11306', '11307', '11308', '11309', '1131', '11310', '11311', '11312', '11313', '11314', '11315', '11316', '11317', '11318', '11319', '1132', '11320', '11321', '11322', '11323', '11324', '11325', '11326', '11327', '11328', '11329', '1133', '11330', '11331', '11332', '11333', '11334', '11335', '11336', '11337', '11338', '11339', '1134', '11340', '11341', '11342', '11343', '11344', '11345', '11346', '11347', '11348', '11349', '1135', '11350', '11351', '11352', '11353', '11354', '11355', '11356', '11357', '11358', '11359', '1136', '11360', '11361', '11362', '11363', '11364', '11365', '11366', '11367', '11368', '11369', '1137', '11370', '11371', '11372', '11373', '11374', '11375', '11376', '11377', '11378', '11379', '1138', '11380', '11381', '11382', '11383', '11384', '11385', '11386', '11387', '11388', '11389', '1139', '11390', '11391', '11392', '11393', '11394', '11395', '11396', '11397', '11398', '11399', '114', '1140', '11400', '11401', '11402', '11403', '11404', '11405', '11406', '11407', '11408', '11409', '1141', '11410', '11411', '11412', '11413', '11414', '11415', '11416', '11417', '11418', '11419', '1142', '11420', '11421', '11422', '11423', '11424', '11425', '11426', '11427', '11428', '11429', '1143', '11430', '11431', '11432', '11433', '11434', '11435', '11436', '11437', '11438', '11439', '1144', '11440', '11441', '11442', '11443', '11444', '11445', '11446', '11447', '11448', '11449', '1145', '11450', '11451', '11452', '11453', '11454', '11455', '11456', '11457', '11458', '11459', '1146', '11460', '11461', '11462', '11463', '11464', '11465', '11466', '11467', '11468', '11469', '1147', '11470', '11471', '11472', '11473', '11474', '11475', '11476', '11477', '11478', '11479', '1148', '11480', '11481', '11482', '11483', '11484', '11485', '11486', '11487', '11488', '11489', '1149', '11490', '11491', '11492', '11493', '11494', '11495', '11496', '11497', '11498', '11499', '115', '1150', '11500', '11501', '11502', '11503', '11504', '11505', '11506', '11507', '11508', '11509', '1151', '11510', '11511', '11512', '11513', '11514', '11515', '11516', '11517', '11518', '11519', '1152', '11520', '11521', '11522', '11523', '11524', '11525', '11526', '11527', '11528', '11529', '1153', '11530', '11531', '11532', '11533', '11534', '11535', '11536', '11537', '11538', '11539', '1154', '11540', '11541', '11542', '11543', '11544', '11545', '11546', '11547', '11548', '11549', '1155', '11550', '11551', '11552', '11553', '11554', '11555', '11556', '11557', '11558', '11559', '1156', '11560', '11561', '11562', '11563', '11564', '11565', '11566', '11567', '11568', '11569', '1157', '11570', '11571', '11572', '11573', '11574', '11575', '11576', '11577', '11578', '11579', '1158', '11580', '11581', '11582', '11583', '11584', '11585', '11586', '11587', '11588', '11589', '1159', '11590', '11591', '11592', '11593', '11594', '11595', '11596', '11597', '11598', '11599', '116', '1160', '11600', '11601', '11602', '11603', '11604', '11605', '11606', '11607', '11608', '11609', '1161', '11610', '11611', '11612', '11613', '11614', '11615', '11616', '11617', '11618', '11619', '1162', '11620', '11621', '11622', '11623', '11624', '11625', '11626', '11627', '11628', '11629', '1163', '11630', '11631', '11632', '11633', '11634', '11635', '11636', '11637', '11638', '11639', '1164', '11640', '11641', '11642', '11643', '11644', '11645', '11646', '11647', '11648', '11649', '1165', '11650', '11651', '11652', '11653', '11654', '11655', '11656', '11657', '11658', '11659', '1166', '11660', '11661', '11662', '11663', '11664', '11665', '11666', '11667', '11668', '11669', '1167', '11670', '11671', '11672', '11673', '11674', '11675', '11676', '11677', '11678', '11679', '1168', '11680', '11681', '11682', '11683', '11684', '11685', '11686', '11687', '11688', '11689', '1169', '11690', '11691', '11692', '11693', '11694', '11695', '11696', '11697', '11698', '11699', '117', '1170', '11700', '11701', '11702', '11703', '11704', '11705', '11706', '11707', '11708', '11709', '1171', '11710', '11711', '11712', '11713', '11714', '11715', '11716', '11717', '11718', '11719', '1172', '11720', '11721', '11722', '11723', '11724', '11725', '11726', '11727', '11728', '11729', '1173', '11730', '11731', '11732', '11733', '11734', '11735', '11736', '11737', '11738', '11739', '1174', '11740', '11741', '11742', '11743', '11744', '11745', '11746', '11747', '11748', '11749', '1175', '11750', '11751', '11752', '11753', '11754', '11755', '11756', '11757', '11758', '11759', '1176', '11760', '11761', '11762', '11763', '11764', '11765', '11766', '11767', '11768', '11769', '1177', '11770', '11771', '11772', '11773', '11774', '11775', '11776', '11777', '11778', '11779', '1178', '11780', '11781', '11782', '11783', '11784', '11785', '11786', '11787', '11788', '11789', '1179', '11790', '11791', '11792', '11793', '11794', '11795', '11796', '11797', '11798', '11799', '118', '1180', '11800', '11801', '11802', '11803', '11804', '11805', '11806', '11807', '11808', '11809', '1181', '11810', '11811', '11812', '11813', '11814', '11815', '11816', '11817', '11818', '11819', '1182', '11820', '11821', '11822', '11823', '11824', '11825', '11826', '11827', '11828', '11829', '1183', '11830', '11831', '11832', '11833', '11834', '11835', '11836', '11837', '11838', '11839', '1184', '11840', '11841', '11842', '11843', '11844', '11845', '11846', '11847', '11848', '11849', '1185', '11850', '11851', '11852', '11853', '11854', '11855', '11856', '11857', '11858', '11859', '1186', '11860', '11861', '11862', '11863', '11864', '11865', '11866', '11867', '11868', '11869', '1187', '11870', '11871', '11872', '11873', '11874', '11875', '11876', '11877', '11878', '11879', '1188', '11880', '11881', '11882', '11883', '11884', '11885', '11886', '11887', '11888', '11889', '1189', '11890', '11891', '11892', '11893', '11894', '11895', '11896', '11897', '11898', '11899', '119', '1190', '11900', '11901', '11902', '11903', '11904', '11905', '11906', '11907', '11908', '11909', '1191', '11910', '11911', '11912', '11913', '11914', '11915', '11916', '11917', '11918', '11919', '1192', '11920', '11921', '11922', '11923', '11924', '11925', '11926', '11927', '11928', '11929', '1193', '11930', '11931', '11932', '11933', '11934', '11935', '11936', '11937', '11938', '11939', '1194', '11940', '11941', '11942', '11943', '11944', '11945', '11946', '11947', '11948', '11949', '1195', '11950', '11951', '11952', '11953', '11954', '11955', '11956', '11957', '11958', '11959', '1196', '11960', '11961', '11962', '11963', '11964', '11965', '11966', '11967', '11968', '11969', '1197', '11970', '11971', '11972', '11973', '11974', '11975', '11976', '11977', '11978', '11979', '1198', '11980', '11981', '11982', '11983', '11984', '11985', '11986', '11987', '11988', '11989', '1199', '11990', '11991', '11992', '11993', '11994', '11995', '11996', '11997', '11998', '11999', '12', '120', '1200', '12000', '12001', '12002', '12003', '12004', '12005', '12006', '12007', '12008', '12009', '1201', '12010', '12011', '12012', '12013', '12014', '12015', '12016', '12017', '12018', '12019', '1202', '12020', '12021', '12022', '12023', '12024', '12025', '12026', '12027', '12028', '12029', '1203', '12030', '12031', '12032', '12033', '12034', '12035', '12036', '12037', '12038', '12039', '1204', '12040', '12041', '12042', '12043', '12044', '12045', '12046', '12047', '12048', '12049', '1205', '12050', '12051', '12052', '12053', '12054', '12055', '12056', '12057', '12058', '12059', '1206', '12060', '12061', '12062', '12063', '12064', '12065', '12066', '12067', '12068', '12069', '1207', '12070', '12071', '12072', '12073', '12074', '12075', '12076', '12077', '12078', '12079', '1208', '12080', '12081', '12082', '12083', '12084', '12085', '12086', '12087', '12088', '12089', '1209', '12090', '12091', '12092', '12093', '12094', '12095', '12096', '12097', '12098', '12099', '121', '1210', '12100', '12101', '12102', '12103', '12104', '12105', '12106', '12107', '12108', '12109', '1211', '12110', '12111', '12112', '12113', '12114', '12115', '12116', '12117', '12118', '12119', '1212', '12120', '12121', '12122', '12123', '12124', '12125', '12126', '12127', '12128', '12129', '1213', '12130', '12131', '12132', '12133', '12134', '12135', '12136', '12137', '12138', '12139', '1214', '12140', '12141', '12142', '12143', '12144', '12145', '12146', '12147', '12148', '12149', '1215', '12150', '12151', '12152', '12153', '12154', '12155', '12156', '12157', '12158', '12159', '1216', '12160', '12161', '12162', '12163', '12164', '12165', '12166', '12167', '12168', '12169', '1217', '12170', '12171', '12172', '12173', '12174', '12175', '12176', '12177', '12178', '12179', '1218', '12180', '12181', '12182', '12183', '12184', '12185', '12186', '12187', '12188', '12189', '1219', '12190', '12191', '12192', '12193', '12194', '12195', '12196', '12197', '12198', '12199', '122', '1220', '12200', '12201', '12202', '12203', '12204', '12205', '12206', '12207', '12208', '12209', '1221', '12210', '12211', '12212', '12213', '12214', '12215', '12216', '12217', '12218', '12219', '1222', '12220', '12221', '12222', '12223', '12224', '12225', '12226', '12227', '12228', '12229', '1223', '12230', '12231', '12232', '12233', '12234', '12235', '12236', '12237', '12238', '12239', '1224', '12240', '12241', '12242', '12243', '12244', '12245', '12246', '12247', '12248', '12249', '1225', '12250', '12251', '12252', '12253', '12254', '12255', '12256', '12257', '12258', '12259', '1226', '12260', '12261', '12262', '12263', '12264', '12265', '12266', '12267', '12268', '12269', '1227', '12270', '12271', '12272', '12273', '12274', '12275', '12276', '12277', '12278', '12279', '1228', '12280', '12281', '12282', '12283', '12284', '12285', '12286', '12287', '12288', '12289', '1229', '12290', '12291', '12292', '12293', '12294', '12295', '12296', '12297', '12298', '12299', '123', '1230', '12300', '12301', '12302', '12303', '12304', '12305', '12306', '12307', '12308', '12309', '1231', '12310', '12311', '12312', '12313', '12314', '12315', '12316', '12317', '12318', '12319', '1232', '12320', '12321', '12322', '12323', '12324', '12325', '12326', '12327', '12328', '12329', '1233', '12330', '12331', '12332', '12333', '12334', '12335', '12336', '12337', '12338', '12339', '1234', '12340', '12341', '12342', '12343', '12344', '12345', '12346', '12347', '12348', '12349', '1235', '12350', '12351', '12352', '12353', '12354', '12355', '12356', '12357', '12358', '12359', '1236', '12360', '12361', '12362', '12363', '12364', '12365', '12366', '12367', '12368', '12369', '1237', '12370', '12371', '12372', '12373', '12374', '12375', '12376', '12377', '12378', '12379', '1238', '12380', '12381', '12382', '12383', '12384', '12385', '12386', '12387', '12388', '12389', '1239', '12390', '12391', '12392', '12393', '12394', '12395', '12396', '12397', '12398', '12399', '124', '1240', '12400', '12401', '12402', '12403', '12404', '12405', '12406', '12407', '12408', '12409', '1241', '12410', '12411', '12412', '12413', '12414', '12415', '12416', '12417', '12418', '12419', '1242', '12420', '12421', '12422', '12423', '12424', '12425', '12426', '12427', '12428', '12429', '1243', '12430', '12431', '12432', '12433', '12434', '12435', '12436', '12437', '12438', '12439', '1244', '12440', '12441', '12442', '12443', '12444', '12445', '12446', '12447', '12448', '12449', '1245', '12450', '12451', '12452', '12453', '12454', '12455', '12456', '12457', '12458', '12459', '1246', '12460', '12461', '12462', '12463', '12464', '12465', '12466', '12467', '12468', '12469', '1247', '12470', '12471', '12472', '12473', '12474', '12475', '12476', '12477', '12478', '12479', '1248', '12480', '12481', '12482', '12483', '12484', '12485', '12486', '12487', '12488', '12489', '1249', '12490', '12491', '12492', '12493', '12494', '12495', '12496', '12497', '12498', '12499', '125', '1250', '12500', '12501', '12502', '12503', '12504', '12505', '12506', '12507', '12508', '12509', '1251', '12510', '12511', '12512', '12513', '12514', '12515', '12516', '12517', '12518', '12519', '1252', '12520', '12521', '12522', '12523', '12524', '12525', '12526', '12527', '12528', '12529', '1253', '12530', '12531', '12532', '12533', '12534', '12535', '12536', '12537', '12538', '12539', '1254', '12540', '12541', '12542', '12543', '12544', '12545', '12546', '12547', '12548', '12549', '1255', '12550', '12551', '12552', '12553', '12554', '12555', '12556', '12557', '12558', '12559', '1256', '12560', '12561', '12562', '12563', '12564', '12565', '12566', '12567', '12568', '12569', '1257', '12570', '12571', '12572', '12573', '12574', '12575', '12576', '12577', '12578', '12579', '1258', '12580', '12581', '12582', '12583', '12584', '12585', '12586', '12587', '12588', '12589', '1259', '12590', '12591', '12592', '12593', '12594', '12595', '12596', '12597', '12598', '12599', '126', '1260', '12600', '12601', '12602', '12603', '12604', '12605', '12606', '12607', '12608', '12609', '1261', '12610', '12611', '12612', '12613', '12614', '12615', '12616', '12617', '12618', '12619', '1262', '12620', '12621', '12622', '12623', '12624', '12625', '12626', '12627', '12628', '12629', '1263', '12630', '12631', '12632', '12633', '12634', '12635', '12636', '12637', '12638', '12639', '1264', '12640', '12641', '12642', '12643', '12644', '12645', '12646', '12647', '12648', '12649', '1265', '12650', '12651', '12652', '12653', '12654', '12655', '12656', '12657', '12658', '12659', '1266', '12660', '12661', '12662', '12663', '12664', '12665', '12666', '12667', '12668', '12669', '1267', '12670', '12671', '12672', '12673', '12674', '12675', '12676', '12677', '12678', '12679', '1268', '12680', '12681', '12682', '12683', '12684', '12685', '12686', '12687', '12688', '12689', '1269', '12690', '12691', '12692', '12693', '12694', '12695', '12696', '12697', '12698', '12699', '127', '1270', '12700', '12701', '12702', '12703', '12704', '12705', '12706', '12707', '12708', '12709', '1271', '12710', '12711', '12712', '12713', '12714', '12715', '12716', '12717', '12718', '12719', '1272', '12720', '12721', '12722', '12723', '12724', '12725', '12726', '12727', '12728', '12729', '1273', '12730', '12731', '12732', '12733', '12734', '12735', '12736', '12737', '12738', '12739', '1274', '12740', '12741', '12742', '12743', '12744', '12745', '12746', '12747', '12748', '12749', '1275', '12750', '12751', '12752', '12753', '12754', '12755', '12756', '12757', '12758', '12759', '1276', '12760', '12761', '12762', '12763', '12764', '12765', '12766', '12767', '12768', '12769', '1277', '12770', '12771', '12772', '12773', '12774', '12775', '12776', '12777', '12778', '12779', '1278', '12780', '12781', '12782', '12783', '12784', '12785', '12786', '12787', '12788', '12789', '1279', '12790', '12791', '12792', '12793', '12794', '12795', '12796', '12797', '12798', '12799', '128', '1280', '12800', '12801', '12802', '12803', '12804', '12805', '12806', '12807', '12808', '12809', '1281', '12810', '12811', '12812', '12813', '12814', '12815', '12816', '12817', '12818', '12819', '1282', '12820', '12821', '12822', '12823', '12824', '12825', '12826', '12827', '12828', '12829', '1283', '12830', '12831', '12832', '12833', '12834', '12835', '12836', '12837', '12838', '12839', '1284', '12840', '12841', '12842', '12843', '12844', '12845', '12846', '12847', '12848', '12849', '1285', '12850', '12851', '12852', '12853', '12854', '12855', '12856', '12857', '12858', '12859', '1286', '12860', '12861', '12862', '12863', '12864', '12865', '12866', '12867', '12868', '12869', '1287', '12870', '12871', '12872', '12873', '12874', '12875', '12876', '12877', '12878', '12879', '1288', '12880', '12881', '12882', '12883', '12884', '12885', '12886', '12887', '12888', '12889', '1289', '12890', '12891', '12892', '12893', '12894', '12895', '12896', '12897', '12898', '12899', '129', '1290', '12900', '12901', '12902', '12903', '12904', '12905', '12906', '12907', '12908', '12909', '1291', '12910', '12911', '12912', '12913', '12914', '12915', '12916', '12917', '12918', '12919', '1292', '12920', '12921', '12922', '12923', '12924', '12925', '12926', '12927', '12928', '12929', '1293', '12930', '12931', '12932', '12933', '12934', '12935', '12936', '12937', '12938', '12939', '1294', '12940', '12941', '12942', '12943', '12944', '12945', '12946', '12947', '12948', '12949', '1295', '12950', '12951', '12952', '12953', '12954', '12955', '12956', '12957', '12958', '12959', '1296', '12960', '12961', '12962', '12963', '12964', '12965', '12966', '12967', '12968', '12969', '1297', '12970', '12971', '12972', '12973', '12974', '12975', '12976', '12977', '12978', '12979', '1298', '12980', '12981', '12982', '12983', '12984', '12985', '12986', '12987', '12988', '12989', '1299', '12990', '12991', '12992', '12993', '12994', '12995', '12996', '12997', '12998', '12999', '13', '130', '1300', '13000', '13001', '13002', '13003', '13004', '13005', '13006', '13007', '13008', '13009', '1301', '13010', '13011', '13012', '13013', '13014', '13015', '13016', '13017', '13018', '13019', '1302', '13020', '13021', '13022', '13023', '13024', '13025', '13026', '13027', '13028', '13029', '1303', '13030', '13031', '13032', '13033', '13034', '13035', '13036', '13037', '13038', '13039', '1304', '13040', '13041', '13042', '13043', '13044', '13045', '13046', '13047', '13048', '13049', '1305', '13050', '13051', '13052', '13053', '13054', '13055', '13056', '13057', '13058', '13059', '1306', '13060', '13061', '13062', '13063', '13064', '13065', '13066', '13067', '13068', '13069', '1307', '13070', '13071', '13072', '13073', '13074', '13075', '13076', '13077', '13078', '13079', '1308', '13080', '13081', '13082', '13083', '13084', '13085', '13086', '13087', '13088', '13089', '1309', '13090', '13091', '13092', '13093', '13094', '13095', '13096', '13097', '13098', '13099', '131', '1310', '13100', '13101', '13102', '13103', '13104', '13105', '13106', '13107', '13108', '13109', '1311', '13110', '13111', '13112', '13113', '13114', '13115', '13116', '13117', '13118', '13119', '1312', '13120', '13121', '13122', '13123', '13124', '13125', '13126', '13127', '13128', '13129', '1313', '13130', '13131', '13132', '13133', '13134', '13135', '13136', '13137', '13138', '13139', '1314', '13140', '13141', '13142', '13143', '13144', '13145', '13146', '13147', '13148', '13149', '1315', '13150', '13151', '13152', '13153', '13154', '13155', '13156', '13157', '13158', '13159', '1316', '13160', '13161', '13162', '13163', '13164', '13165', '13166', '13167', '13168', '13169', '1317', '13170', '13171', '13172', '13173', '13174', '13175', '13176', '13177', '13178', '13179', '1318', '13180', '13181', '13182', '13183', '13184', '13185', '13186', '13187', '13188', '13189', '1319', '13190', '13191', '13192', '13193', '13194', '13195', '13196', '13197', '13198', '13199', '132', '1320', '13200', '13201', '13202', '13203', '13204', '13205', '13206', '13207', '13208', '13209', '1321', '13210', '13211', '13212', '13213', '13214', '13215', '13216', '13217', '13218', '13219', '1322', '13220', '13221', '13222', '13223', '13224', '13225', '13226', '13227', '13228', '13229', '1323', '13230', '13231', '13232', '13233', '13234', '13235', '13236', '13237', '13238', '13239', '1324', '13240', '13241', '13242', '13243', '13244', '13245', '13246', '13247', '13248', '13249', '1325', '13250', '13251', '13252', '13253', '13254', '13255', '13256', '13257', '13258', '13259', '1326', '13260', '13261', '13262', '13263', '13264', '13265', '13266', '13267', '13268', '13269', '1327', '13270', '13271', '13272', '13273', '13274', '13275', '13276', '13277', '13278', '13279', '1328', '13280', '13281', '13282', '13283', '13284', '13285', '13286', '13287', '13288', '13289', '1329', '13290', '13291', '13292', '13293', '13294', '13295', '13296', '13297', '13298', '13299', '133', '1330', '13300', '13301', '13302', '13303', '13304', '13305', '13306', '13307', '13308', '13309', '1331', '13310', '13311', '13312', '13313', '13314', '13</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>654897</v>
+        <v>654898</v>
       </c>
       <c r="S3" t="n">
-        <v>21925</v>
+        <v>21926</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>['100 Acres Lots', '8th range of Grenville', 'ABBA', 'ABBE', 'ABBEE', 'ABBOT', 'ABBOTT', 'ABBY', 'ABEL', 'ABER', 'ABERCROMBIE', 'ABERNATHER', 'ABERNETHY', 'ABRAHAM', 'ABRAHAM/COLE', 'ABRAHAMS', 'ABRAHAMS/COLE', 'ABRAM', 'ABRAMS', 'ABRAMS/SNYDER', 'ABRAY', 'ABURNATHY', 'ACCARMAN', 'ACHESON', 'ACHISON', 'ACKER', 'ACKLAND', 'ACKLEY', 'ACKMAN', 'ACOR', 'ACRE', 'ACTON', 'ADAIR', 'ADAIR/CRAWLEY', 'ADAM', 'ADAM/LARAMEY', 'ADAMS', 'ADAMS/ADNANS', 'ADAMS/CLIFFORD', 'ADAMS/COONS', 'ADAMSON', 'ADDISON', 'ADKINS', 'ADKINSON', 'ADSIT/HAIRLAND', 'ADY', 'ADZIT', 'AGER', 'AGLER', 'AGLOR/ACHLER', 'AGNEW', 'AHIER/ALICER', 'AHSMAN', 'AHSTON', 'AICKMAN', 'AIKEN', 'AIKIN', 'AIKINS', 'AIKMAN', 'AILEY', 'AINLAY', 'AINSE', 'AINSE/MONTURE', 'AINSLEY', 'AINSLIE', 'AINSWORTH', 'AIRD', 'AIREY', 'AIREYS', 'AIRHART', 'AIRHEART', 'AIRTH', 'AISSANCE', 'AITCHISON', 'AITHENS', 'AITKEN', 'AITKENS', 'AITKIN', 'AITKINS', 'AKE', 'AKERLY', 'AKEY', 'AKIN', 'AKINS', 'AKROYD', 'ALAN', 'ALBERSON', 'ALBERT', 'ALBERTSON', 'ALBERTSON/POWELL/POWLY', 'ALBRANT', 'ALBRIGHT', 'ALCOCK', 'ALCOMBRACK', 'ALCORN', 'ALDER', 'ALDERICE', 'ALDERTON', 'ALDGEO', 'ALDRICH', 'ALDRICK', 'ALDWORTH', 'ALEAY', 'ALEXANDER', 'ALFORD', 'ALGAE', 'ALGEA', 'ALGEO', 'ALGER', 'ALGIER', 'ALGIO', 'ALGIRE', 'ALGOE', 'ALGUINE', 'ALGUIRE', 'ALISON', 'ALLAIR', 'ALLAN', 'ALLARD', 'ALLAWAY', 'ALLBRIGHT', 'ALLCOCK', 'ALLCOMBRACK', 'ALLCOTT', 'ALLCOX', 'ALLD', 'ALLEN', 'ALLEN/COLE', 'ALLEN/COOPER', 'ALLEN/CUMMING', 'ALLEN/MOSHER', 'ALLENDER', 'ALLEY', 'ALLGER', 'ALLIBONE', 'ALLICE', 'ALLIN', 'ALLIS', 'ALLISON', 'ALLPORT', 'ALLRIGHT', 'ALLSOP', 'ALLWOOD', 'ALMAS', 'ALMIS', 'ALMS', 'ALPHOUGH', 'ALSTEN', 'ALSTON', 'ALT', 'ALTENBURG', 'ALTHOUSE', 'ALTHOUSER', 'ALTON', 'ALWARD', 'ALWAY', 'ALWOOD', 'ALYEA', 'AMABLE', 'AMAN', 'AMBLER', 'AMBRIDGE', 'AMBROSE', 'AMELYER', 'AMERY', 'AMES', 'AMEY', 'AMEY/BAKER', 'AMIOTTE', 'AMLEA', 'AMLIN', 'AMMERMAN', 'AMMON', 'AMOR', 'AMORY', 'AMOS', 'AMPHLETT', 'AMSTED', 'AMUS', 'AMY', 'AMY/DAVY', 'ANABELD', 'ANCASTER', 'ANCASTER/CROOKS', 'ANCASTER/CRYSLER', 'ANDERSON', 'ANDERSON/CLARKE', 'ANDERSON/CRYDERMAN', 'ANDERSON/CUMMINGS', 'ANDERSON/CURTIS', "ANDERSON/M'BEAN", 'ANDERSON/McGRATH', 'ANDERTON', 'ANDRASS', 'ANDRES', 'ANDRESS', 'ANDREW', 'ANDREWS', 'ANDRICK', 'ANDRUS', 'ANDRUSS', 'ANGELL', 'ANGER', 'ANGLEMIRE', 'ANGUISH', 'ANNABLE', 'ANNANCE', 'ANNAND', 'ANNET', 'ANNETT', 'ANNIS', 'ANSLEY', 'ANSON', 'ANTAILLA', 'ANTALIA', 'ANTALLIA', 'ANTAYA', 'ANTHON', 'ANTHONY', 'APPELBEE', 'APPELLEE', 'APPLEBEE', 'APPLEBY', 'APPLEGARTH', 'APPLETON', 'APRIL', 'ARBURTHNOT', 'ARBUTHNOT', 'ARCHAMBAULT', 'ARCHBOLD', 'ARCHDEKEN/ARCHDEKIN', 'ARCHER', 'ARCHIBALD', 'ARCONAITE', 'ARDAGH', 'ARDELL', 'ARDIEL', 'ARDIELL', 'ARDILL', 'ARDLE', 'ARGUE', 'ARHART', 'ARIVISON', 'ARKELL', 'ARKENBRACK', 'ARKLAND', 'ARLESS', 'ARLINGTON', 'ARLSHOW', 'ARMISTEAD', 'ARMITAGE', 'ARMON', 'ARMOUR', 'ARMS', 'ARMSON', 'ARMSTRONG', 'ARMSTRONG/DOPP', 'ARNER', 'ARNISON', 'ARNIT', 'ARNOLD', 'ARNOLD/CLOWES', 'ARNOLDI', 'ARNOT', 'ARNOTE', 'ARNOTT', 'ARQUART', 'ARROWSMITH', 'ARTER/ARTIS', 'ARTHUR', 'ARTHUR/GIBSON', 'ARTHURS', 'ARVISON', 'ASBURN', 'ASH', 'ASHBAUGH', 'ASHBLAUGH', 'ASHBOUGH', 'ASHBRIDGE', 'ASHBURN', 'ASHBURRY', 'ASHBY', 'ASHFIELD', 'ASHFORD', 'ASHFORD/CROSS', 'ASHLEY', 'ASHMAN', 'ASHTON', 'ASHWELL', 'ASHWORTH', 'ASKEW', 'ASKIN', 'ASKINS', 'ASKWITH', 'ASLEY', 'ASOPH', 'ASPREY', 'ASSEKINACK', 'ASSELIN', 'ASSELSBYNE/CORBAN', 'ASSELSTINE', 'ASSELSTINE/DAVY', 'ASSELTINE', 'ASTON', 'ATCHESON', 'ATCHISON', 'ATKIN', 'ATKINS', 'ATKINSON', 'ATTHILL', 'ATTWELL', 'ATTWOOD', 'ATWOOD', 'AUBERRY', 'AUBERT', 'AUGER', 'AUGER/ANGER', 'AUGUSTIN', 'AUGUSTINE', 'AULDJO', 'AULDJO &amp; MAITLAND', 'AULDJO/McDONELL', 'AULIN', 'AULT', 'AULT/LOUCKS', 'AUMOND', 'AUREY', 'AURT', 'AUSEM', 'AUSMAN', 'AUSTEN', 'AUSTIN', 'AUTIN', 'AUTINO', 'AVERILL', 'AVERY', 'AVISON', 'AVRILL', 'AWREY', 'AXFORD', 'AXHAM', 'AYER', 'AYLBOYNE', 'AYLEN', 'AYLMER', 'AYLSWORTH', 'AYLUM', 'AYLWARD', 'AYNGE', 'AYOTT', 'AYRES', 'Abbot', 'Abbott', 'Abell', 'Abrams/Lockwood', 'Ackler/Warren', 'Ackley/Meritt', 'Acque', 'Acre/Oswald', 'Acre/Trowbridge', 'Acres', 'Acton', 'Adair/Springsteen', 'Adair/Ward', 'Adam', 'Adam/Mattice', 'Adams', 'Adams/McNeil', 'Adams/Nudle', 'Adams/Sage', 'Adams/Snider', 'Adams/Willson', 'Adamson', 'Affairs of the Canada Company with Government.', 'African Baptist Church', 'Agency of the Seigniory of Lauzon', 'Agricultural Society', 'Agricultural Society Middlesex', 'Ahern', 'Aidel', 'Aird', 'Airhash/Wager', 'Airth', 'Aitkin', 'Aker/Jones', 'Albrant/Statard', 'Albrant/Stodard', 'Albright', 'Alderson', 'Aldridge', 'Algeor', 'Alger', 'Alger/Mosher', 'Alger/Van Blarcom', 'Algie', 'Algire', 'Algire/Van Blarcom', 'Alguira/Jacocks', 'Alguire/Loucks', 'Alguire/Stallmayer', 'Alguire/Wallisoe', 'Allair', 'Allan', 'Allan/Wintermute', 'Allbright/Albright', 'Allen', 'Allen/Mirick', 'Allen/Vanalstine', 'Allen/Watson', 'Allison', 'Allison/McTaggart', 'Alphin', 'Alston', 'Altemas', 'Althouse/Van Buren', 'Alvord', 'Alway', 'Alyea', 'Amalicite Indians', 'Amey/Snyder', 'Amory', 'Anable', 'Anderson', 'Anderson/LaCompte', 'Anderson/Lundy', 'Anderson/Macdonell', 'Anderson/Main', 'Anderson/McCuen', 'Anderson/Reid', 'Anderson/Ruderback', 'Anderson/Secord', 'Andrew', 'Andrews', 'Andrews/Morrill', 'Andrews/Mott', 'Andrews/Wright', 'Angell', 'Anger/House', 'Anger/McClintock', 'Anglican Church and Church Wardens', 'Anglican Presbyterians', 'Angst', 'Anguish/Lane', 'Angus', 'Annabel', 'Annable', 'Annable/Rowley', 'Anneser/Gibson', 'Annible/Wagner', 'Ansley/Merrill', 'Anson', 'Anton/Molyneux', 'Apostolic Missionary Church Wardens', 'Applegarth', 'Applicants for Clergy Reserves', 'Applicants for free grants', 'Applicants of Niagara', 'Application for Deeds, township of Arthur.', 'Application for lease of occupation of a certain block', 'Application for the Township of Grantham', 'Application for the concession of "Dewar Island"', 'Application of settlers for survey of Somerset, Stanfold and Maddington', 'Application to purchase Clergy Reserves in the County of Carleton.', 'Application to purchase lands in the township of Inverness', 'Application to purchase lot', 'Application to purchase lots in Orillia', 'Applications For the purchase of certain Clergy Reserved in Amaranth and Melancthon.', 'Applications for Lot 31 in 13 Concession in Zorra Township', 'Applications for grants', 'Applications for land', 'Applications for land script of officers', 'Applications for mining', 'Applications for purchase of Crown lands in Zone', 'Applications of the municipality of St. Vincent', 'Applications to buy lots', 'Applications to purchase land in -', 'Applications to purchase land in Sheffield', 'Applications to purchase lands', 'Applications to purchase lands in Gore of Somerset', 'Applications to purchase lots 26 &amp; 27', 'Appointment of Inspectors of Land in Upper and Lower Canada', 'Archar', 'Archbishop of Quebec', 'Archer', 'Archibald', 'Archiepiscopal Corporation of Quebec', 'Ardill', 'Argue', 'Arkell', 'Arkland', 'Arkley', 'Armatage', 'Armour', 'Armstrong', 'Armstrong/Marlett', "Armstrong/O'Neill", 'Armstrong/Welch', 'Arner/Whittle', 'Arnold', 'Arnold/Munson', 'Arnot', 'Arrangements proposed by the Receiver General (Peter Russell) For sending of patents to the different districts.', 'Arundel in relation to survey', 'Ash', 'Ashford/Mallery', 'Ashley', 'Ashman', 'Ashton', 'Askin', 'Askin/Richardson', 'Askins/Weatherhead', 'Aspenwall', 'Asselstine', 'Asselstine/Lessard', 'Asselstine/Watson', 'Association of Bellechasse.', 'Association of Bellechasse; relative to lands in Buckland.', 'Asten/Snitzinger', 'Atchison', 'Atkins', 'Atkinson', 'Attorney General issue of a fiat dispensed with in certain cases.', 'Attorney General re Church Land', 'Attorney General respecting Survey near Niagara Falls.', 'Attorney General respecting leases of the Crown and Clergy Reserves.', 'Attorney General respecting surrender of certain patents in the township of Hope.', "Attorney General's report", 'Attorney General, opinion land set apart for Government House had been promised as an endowment for hospital.', 'Attorney General, opinion respecting delivery of Patent Deeds.', 'Auction', 'Auger/Near', 'Ault/Redmond', 'Ault/Snider', 'Ault/Thomb', 'Ault/Weart', 'Austin/Marr', 'Authority for verification of outlines of Shawenagan', 'Authority to advertise lots', 'Authority to perform Surveys', 'Avery', 'Awrey', 'Aynge', 'Ayotte', 'Ayrs', 'Ayton', 'Azereas', 'BAAR', 'BABBIT', 'BABCOCK', 'BABCOCK/AYNHART', 'BABCOCK/CLEVELAND', 'BABCOCK/COLE', 'BABCOCK/COOK', 'BABCOCK/HARPELL', 'BABCOCK/SNIDER', 'BABCUCK', 'BABESK/COLE', 'BABINEAU', 'BABY', 'BACH', 'BACHAMAN', 'BACHE', 'BACHUS', 'BACKEN/BACON', 'BACKER', 'BACKHOUSE', 'BACKHOUSE/McMICHAEL', 'BACKSTER', 'BACKUS', 'BACON', 'BADDELEY', 'BADDER', 'BADGELY', 'BADGEN', 'BADGER', 'BADGERON', 'BADGLEY', 'BADICHON', 'BAGE', 'BAGERO', 'BAGG', 'BAGLEY', 'BAGSHAW', 'BAGSLEY', 'BAGWELL', 'BAID', 'BAIL/PRETEUS', 'BAILEY', 'BAILEY/BALEY', 'BAILEY/DOVER', 'BAILEY/WINTERMULER', 'BAILIE', 'BAILLIE', 'BAILLY', 'BAILY', 'BAIN', 'BAINES', 'BAIRD', 'BAIRDEN', 'BAITS', 'BAITSON', 'BAKEN', 'BAKEN/SMITH', 'BAKER', 'BAKER/CARPENTER', 'BAKER/COOK', 'BAKER/DAVY', 'BAKER/FRANKLIN', 'BAKER/FRANKS', 'BAKER/MILLARD', 'BAKER/McARTHUR', 'BAKER/NOODLE', 'BAKEWELL', 'BALANCE', 'BALCH', 'BALDERSON', 'BALDWIN', 'BALDWIN/SERVICE', 'BALDWIN/SHAW', 'BALDWINS', 'BALDWYN', 'BALEY', 'BALFOUR', 'BALIE', 'BALKE', 'BALKWELL', 'BALKWILL', 'BALL', 'BALL/CREEN', 'BALL/CRYSLER', 'BALLANTYNE', 'BALLARD', 'BALLENTINE', 'BALM/DOCHSTADER', 'BALMER', 'BALTEEL', 'BALTY', 'BAMBER', 'BAMBRIDGE/BAMBIDGE', 'BAMFORD', 'BANCK', 'BANCRAFT', 'BANCROFT', 'BANCROFT/BENCROFT', 'BANDER', 'BANE', 'BANER', 'BANFIELD', 'BANGHART', 'BANGHART/BAUGHART', 'BANGS', 'BANKER', 'BANKS', 'BANNEAU', 'BANNERMAN', 'BANNERMAN/BOWERMAN', 'BANNISTER', 'BANNON', 'BANTA', 'BAPTIST', 'BARABE', 'BARBAR', 'BARBARE', 'BARBAREE', 'BARBEAU', 'BARBER', 'BARBER/PELLET', 'BARBERE', 'BARBO', 'BARBOUR', 'BARBU', 'BARCHKLY', 'BARCHLE', 'BARCKLEY', 'BARCKLY', 'BARCLAY', 'BARCLEY', 'BARCLEY/BARKELLEY', 'BARDAN/CLARK', 'BARDBURN', 'BARDEN', 'BARDIN/McNIEL', 'BARDON', 'BARDSLEE', 'BAREFOOT', 'BARGAR', 'BARGER', 'BARGER/FOSTER', 'BARHLEY', 'BARIL', 'BARJARO', 'BARK', 'BARKALEY', 'BARKELLY', 'BARKER', 'BARKHOUSE', 'BARKLAY', 'BARKLEY', 'BARKLEY/AULT', 'BARKLEY/GARLOUGH', 'BARKLEY/MARKLEY', 'BARKLEY/STRADER', 'BARKLEY/UTTMAN', 'BARLEY', 'BARLINGER', 'BARLOU/BAILIE', 'BARLOW', 'BARLOWE', 'BARNAM', 'BARNARD', 'BARNELL', 'BARNES', 'BARNET', 'BARNET/LANDON', 'BARNETT', 'BARNEY', 'BARNHAM', 'BARNHAM/DACHSTEDER', 'BARNHARD', 'BARNHART', 'BARNHART/MARSH', 'BARNHART/PRENTICE', 'BARNHART/RAMBOUGH', 'BARNHART/SILLS', 'BARNHART/WAGER', 'BARNIER', 'BARNS', 'BARNSIDE', 'BARNUM', 'BARNUM/CLARYSDALE', 'BARNUM/HAME', 'BARO', 'BARON', 'BARON/LAFRENIERE', 'BARR', 'BARRACLOUGH', 'BARRAGER/LEE', 'BARREL', 'BARRELL', 'BARRET', 'BARRETT', 'BARRETT/WALKER', 'BARRETTE', 'BARRICHER/STRADER', 'BARRIE', 'BARRIER', 'BARRIGER', 'BARRIL', 'BARRITT', 'BARRON', 'BARROWMAN', 'BARRY', 'BART', 'BARTCH', 'BARTELEY', 'BARTELL/CARSCALLEN', 'BARTELS', 'BARTEN', 'BARTEN/DIXON', 'BARTH', 'BARTHE', 'BARTHOL', 'BARTHOLD', 'BARTHOLEMEW', 'BARTHOLOMAY', 'BARTHOLOMEW', 'BARTHOLOMEY', 'BARTHY', 'BARTLEMAN', 'BARTLES', 'BARTLES/McDOUGAL', 'BARTLET', 'BARTLET, SMITH &amp; others', 'BARTLETT', 'BARTLETT/DINGMAN', 'BARTLEY', 'BARTLY', 'BARTLY/NICHOLSON', 'BARTON', 'BARTON/BARTIN', 'BARTON/BOURDETT', 'BARTON/McCORD', 'BARTON/SMADES', 'BARTOW', 'BARTRON', 'BARWICK', 'BARWIS', 'BARY', 'BASKERRIL/BASKERVIL', 'BASKERVILLE', 'BASS', 'BASS/AMEY', 'BASSELL', 'BASSET', 'BASSETT', 'BASSETT/HOPPLE', 'BASSEY', 'BASSEY/SMITH', 'BASTABLE', 'BASTEDO', 'BASTIEN', 'BATE', 'BATEMAN', 'BATER', 'BATES', 'BATES/MATTICE', 'BATESON', 'BATHGATE', 'BATHIE', 'BATHURST', 'BATIE', 'BATNAN', 'BATTAM', 'BATTAY', 'BATTER', 'BATTER/BEDFORD', 'BATTER/POTTER', 'BATTER/WRIGHT', 'BATTERHAM', 'BATTERS', 'BATTERSBY', 'BATTGER', 'BATTIE', 'BATTLE', 'BATTY', 'BATTY/LOYST', 'BATY', 'BAUBIN', 'BAUGH', 'BAUGHANAN', 'BAUMES', 'BAUMSTARK', 'BAVENS', 'BAXTER', 'BAXTER/BINDER', 'BAXTER/MILLER', 'BAXTER/OATMAN', 'BAXTER/SHIPMAN', 'BAXTON', 'BAYCROFT', 'BAYER', 'BAYEUR', 'BAYLEY', 'BAYLY', 'BAYMAN', 'BAYMON', 'BAYNE', 'BAYNES', 'BEACH', 'BEACH/FREO', 'BEACH/SEELYE', 'BEACHER', 'BEACON', 'BEADFORD', 'BEADLE', 'BEADSTEAD', 'BEAGLE', 'BEAKON', 'BEAL', 'BEALE', 'BEALEY', 'BEALL', 'BEALSEY', 'BEAM', 'BEAM/MAY', 'BEAM/MILLS', 'BEAMAN', 'BEAMER', 'BEAMER/DOYLE', 'BEAMISH', 'BEAN', 'BEANE', 'BEARD', 'BEARD/STRADER', 'BEARDSLEY', 'BEARDSLEY/BANKER', 'BEARE', 'BEARMAN', 'BEARSS', 'BEARSS/STEEL', 'BEASLEY', 'BEASTED/FRYMIRE', 'BEATIE', 'BEATON', 'BEATRIE', 'BEATSKE', 'BEATSY', 'BEATTEY', 'BEATTIE', 'BEATTIE/SCRAM', 'BEATTON', 'BEATTY', 'BEATY', 'BEATYS', 'BEAUBIEN', 'BEAUCHAMP', 'BEAUDET', 'BEAUDRY', 'BEAUGRAND', 'BEAUMON', 'BEAUPORT', 'BEAUPR?', 'BEAUPR?/BOUPRIE', 'BEAUPRE', 'BEAUREGARD', 'BEAVIS', 'BEBEE', 'BEBEE/GROOMS', 'BEBEE/SEELY', 'BECHER', 'BECHSTED', 'BECHTEL', 'BECHTELL', 'BECK', 'BECKER', 'BECKER/BAKER', 'BECKERSTAFF', 'BECKERTON', 'BECKETT', 'BECKETT/BOWMAN', 'BECKFORD', 'BECKON', 'BECKON/BACON', 'BECKON/SKINNER', 'BECKOR', 'BECKWITH', 'BECKWITH/SILLS', 'BECKWORTH', 'BEDAL', 'BEDARD', 'BEDELL', 'BEDFORD', 'BEDICK/BEDSTED', 'BEDSTEAD/CASSELMAN', 'BEDSTED', 'BEDSTED/HANESTER', 'BEE', 'BEEBE', 'BEEBE/HART', 'BEECH', 'BEECHER', 'BEEDELL', 'BEEDLE', 'BEEMAN', 'BEEMER', 'BEER', 'BEERS', 'BEESON', 'BEETEN', 'BEETHAM', 'BEETON', 'BEEVAN', 'BEGG', 'BEGG/STAG', 'BEGHAN', 'BEGUE', 'BEIKIE', 'BEITH', 'BELANGER', 'BELCHER', 'BELCOUR', 'BELFORD', 'BELISLE', 'BELKNAP', 'BELL', 'BELL/CARSCALLEN', 'BELL/FINKLE', 'BELL/FRALIC', 'BELL/HARNES', 'BELL/HITCHCOCK', 'BELL/MERKLEY', 'BELL/PALMER', 'BELLAIRE', 'BELLAMY', 'BELLAN', 'BELLANT', 'BELLARD', 'BELLECK', 'BELLECOUR', 'BELLEFEUILLE', 'BELLEPERCHE', 'BELLER', 'BELLERE', 'BELLINGER', 'BELLINGER/OBERHOLD', 'BELLINGER/SLINGERLAND', 'BELLINGHAM', 'BELLIVEAU', 'BELLOWS', 'BELLUE', 'BELNAP', 'BELNAP/MASTERS', 'BELONGE', 'BELROSE', 'BELTON', 'BELTZ', 'BELYEA', 'BEM', 'BEMAN', 'BEMER', 'BEN', 'BENAC', 'BENCH', 'BENCROFT', 'BENDER', 'BENDER/COLLINGER', 'BENDER/WAIT', 'BENDER/WOOD', 'BENECKER', 'BENEDICK', 'BENEDICT', 'BENEDICT/COLE', 'BENEDICT/COVERLY', 'BENEDICT/CRAWFORD', 'BENEDICT/DAFOE', 'BENEKER', 'BENERDICT', 'BENERE', 'BENETEAU', 'BENETEAU/LABALEINE', 'BENFORD', 'BENHAM', 'BENINGER', 'BENITEAU', 'BENJAMIN', 'BENKER', 'BENKLEY', 'BENLEY', 'BENN', 'BENN/BEHN', 'BENN/FITCHETE', 'BENNER', 'BENNER/HOUCK', 'BENNET', 'BENNETT', 'BENNIER', 'BENNINGER', 'BENNINGHAM', 'BENNINGTON', 'BENNITT', 'BENNS', 'BENO', 'BENOIT', 'BENSACK', 'BENSEN', 'BENSON', 'BENSON/SAMSON', 'BENSON/SCHARAMAHAN', 'BENSON/SHEA', 'BENTLEY', 'BENTON', 'BENVILL', 'BENVILLE', 'BERCKLY', 'BERCSY', 'BERCY', 'BERCZY', 'BERDAN', 'BERDAN/McKENZIE', 'BERDEBT/STEEL', 'BERDEN', 'BERFORD', 'BERGAR', 'BERGEN', 'BERGER', 'BERGER/TINKLE', 'BERGIN', 'BERGON', 'BERHAM', 'BERINGER', 'BERISFORD', 'BERKEY', 'BERKLES', 'BERN', 'BERN/BEN', 'BERNARD', 'BERNARD/LARIVI?RE', 'BERNARDIN', 'BERNASH', 'BERNER', 'BERNIER', 'BERNINGER', 'BERO', 'BERREL', 'BERRIE', 'BERRY', 'BERTHEAUME', 'BERTHELET', 'BERTHIAUME', 'BERTLE', 'BERTLES', 'BERTRAND', 'BERTRAND/BERTRAN', 'BERTRON', 'BERUBE', 'BERY', 'BESENERE', 'BESENET', 'BESSE', 'BESSEE', 'BESSEY', 'BESSEY/BESSY', 'BESSIGER/BOSSIGER', 'BEST', 'BESWETHERICK', 'BESWICK', 'BESWICKE', 'BETHAN', 'BETHUME', 'BETHUNE', 'BETHUNE/SMITH', 'BETRON', 'BETRY', 'BETTERIDGE', 'BETTES', 'BETTIE', 'BETTIS', 'BETTON', 'BETTRIDGE', 'BETTS', 'BETTUNE', 'BETTY', 'BETTY/ORSER', 'BETTYS', 'BETZNER', 'BEVANS', 'BEVEAY', 'BEVEN', 'BEVERIDGE', 'BEVIS', 'BEWELL', 'BEWLEY', 'BEYERS', 'BEYNON', 'BEZER', 'BICE', 'BICE/UMPHRY', 'BICKELL', 'BICKERSON', 'BICKET', 'BICKFORD', 'BICKHAM', 'BIDOUT', 'BIDWELL', 'BIEKIE', 'BIGCRAFT', 'BIGCROFT', 'BIGELOW', 'BIGELOW/COLE', 'BIGFORD', 'BIGGAR', 'BIGGAR/COLTMAN', 'BIGGER', 'BIGGINS', 'BIGHAM', 'BIGNELL', 'BIGRAS', 'BILES', 'BILLEDEAUX', 'BILLIDOE', 'BILLIET', 'BILLING', 'BILLINGS', 'BILLINGS/DAVY', 'BILLINGS/GRAHAM', 'BILLINGSBY', 'BILLOPP', 'BILLS', 'BILOW/ALGIRE', 'BILROSE/BONESTEEL', 'BILTON', 'BINAULT', 'BINGHAM', 'BINGHAM/BOWMAN', 'BINGHAM/HUFFMAN', 'BINGHAM/LAPTHORNE', 'BINGLE', 'BINIKER/BINICHER', 'BINKLY', 'BIRCH', 'BIRD', 'BIRD/CARSON', 'BIRDS', 'BIRDSALL', 'BIRDSELL', 'BIRMINGHAM', 'BIRNEY', 'BIRNIE', 'BIRRELL', 'BISHOP', 'BISLEY/BISBEE', 'BISSEL', 'BISSELL', 'BISSELL/CLARK', 'BISSET', 'BISSETT', 'BISSIL', 'BISSONET', 'BISSONNETTE', 'BLACK', 'BLACK/CROSS', 'BLACK/PICKLE', 'BLACKBURN', 'BLACKBURN/BAKER', 'BLACKBURNE', 'BLACKBURNS', 'BLACKELY', 'BLACKER', 'BLACKER/MEYERS', 'BLACKIE', 'BLACKLEY', 'BLACKLOCK', 'BLACKLY', 'BLACKLY/COLE', 'BLACKMAN', 'BLACKMOR', 'BLACKNEY', 'BLACKSOCK', 'BLACKSTOCK', 'BLACKWAY', 'BLACKWELL', 'BLACKWOOD', 'BLADGEN', 'BLADGET', 'BLAIR', 'BLAIR/ORO', 'BLAIR/YOUNG', 'BLAKE', 'BLAKE/ADAMS', 'BLAKELEY', 'BLAKELY', 'BLAKEMORE', 'BLAKENEY', 'BLAKER', 'BLAKER/BLEECKER', 'BLAKER/MEYERS', 'BLAKESBY', 'BLAKESLEY', 'BLAKEY', 'BLAKLEY', 'BLAKLEY/BENNIT', 'BLAKLY', 'BLAKNEY', 'BLAM', 'BLANCHARD', 'BLANCHARD/RUSH', 'BLANCHER', 'BLANCHET', 'BLANCHFILL', 'BLANCO', 'BLAND/CAMPBELL', 'BLANEY', 'BLANN', 'BLASDELL', 'BLAUVELT', 'BLAYLOCK', 'BLEACHUM', 'BLEAKLY', 'BLEAM', 'BLEECKER', 'BLEEKER', 'BLEEKER/MEYERS', 'BLENEY', 'BLETCHER', 'BLEVINS', 'BLEW', 'BLEWETT', 'BLEWITT', 'BLEZARD', 'BLINN', 'BLISS', 'BLIZARD', 'BLODGET/WHEELER', 'BLODGETT', 'BLOM', 'BLOOM', 'BLOOMFIELD', 'BLOOR', 'BLOSDOLL', 'BLOUNT', 'BLOVIN', 'BLUCHERS', 'BLUCKER', 'BLUE', 'BLUEMAN', 'BLUETT', 'BLUM', 'BLUNDEN', 'BLUNT', 'BLYTH', 'BLYTH/CORBMAN', 'BOALAN', 'BOARDMAN/WINTERS', 'BOBIER', 'BOCAUT', 'BOCHET', 'BOCHUS', 'BOCKUS', 'BOCKUS/SHAVER', 'BODDINGTON', 'BODDY', 'BODIN', 'BODINE', 'BODY', 'BOG', 'BOGARD', 'BOGART', 'BOGART/BENEDICT', 'BOGERT', 'BOGGS', 'BOGUE', 'BOHAN', 'BOHANNON', 'BOICE', 'BOICE/AMEY', 'BOICE/CUSHMAN', 'BOICE/SCHRIVER', 'BOID', 'BOILS', 'BOIRE', 'BOISE', 'BOISEAU', 'BOISMIER', 'BOISNISER', 'BOISVERT', 'BOITON', 'BOLAND', 'BOLBY', 'BOLDUC', 'BOLE', 'BOLES', 'BOLLARD', 'BOLSTER', 'BOLTE', 'BOLTON', 'BOLTON/BOULTON', 'BOLTON/BUELL', 'BOLWELL', 'BOMBARDIER', 'BONBERGIER', 'BOND', 'BOND/PATTERSON', 'BONDIE', 'BONDRAY', 'BONDY', 'BONE', 'BONEAU', 'BONER', 'BONESTEAL', 'BONESTEEL', 'BONESTIEL', 'BONGARD', 'BONKER', 'BONKER/CORTEN', 'BONNELL', 'BONNER', 'BONNET', 'BONNETT', 'BONNEY', 'BONNYCASTLE', 'BONSACK', 'BONSER', 'BONSTED', 'BONSTEEL', 'BONSTEEL/CONWAY', 'BONTER', 'BONTER/DEMPSEY', 'BONTER/PEAK', 'BONYARD', 'BOODLE', 'BOODY', 'BOOK', 'BOOMER', 'BOORDEN', 'BOORMAN', 'BOOS', 'BOOTH', 'BOOTH/DALY', 'BOOTH/NORMAN', 'BOOTHROYD', 'BORCKHOLDER', 'BORDEN', 'BORDEN/SEELEY', 'BORGHONDER', 'BORING', 'BORKHOLDER', 'BORLAND', 'BORNUM', 'BORPY', 'BORRELLY', 'BORRIE', 'BORUGHTON/DENNIS', 'BOSQUET', 'BOSQUET/COX', 'BOSS', 'BOSS/AINSLEY', 'BOSSE', 'BOSSENIE', 'BOSSET/SMITH', 'BOSSU/LEONNAIS', 'BOSTICK', 'BOSTLY', 'BOSTON', 'BOSTWICK', 'BOSTWICKS', 'BOSWELL', 'BOSWICK', 'BOTHWELL', 'BOTSFORD', 'BOTTERILL', 'BOTTOM', 'BOTTON', 'BOTTON/CURRY', 'BOTTUM', 'BOUCH', 'BOUCH?', 'BOUCHE', 'BOUCHER', 'BOUCHER DE BOUCHERVILLE', 'BOUCHERVILLE', 'BOUCHETTE', 'BOUCHETTE/BERTHELET', 'BOUCHNER', 'BOUCK', 'BOUCK/DILLABAUGH', 'BOUCKE', 'BOUDETTE', 'BOUDREAU', 'BOUET', 'BOUFFARD', 'BOUGENER', 'BOUGHMAN', 'BOUGHNER', 'BOUGHNER/GLOVER', 'BOUGHNER/MATHEWS', 'BOUGHSLAUCH', 'BOUKE', 'BOUKER', 'BOULANGER', 'BOULBY', 'BOULD', 'BOULGER', 'BOULLARD', 'BOULT', 'BOULTER/PEACK', 'BOULTON', 'BOULTON/BELLANY', 'BOULTON/BOTTON', 'BOULTON/CURRY', 'BOULTON/ELLIOT', 'BOULTON/ELLIOTT', 'BOULTON/JONES', 'BOULTON/REDMAN', 'BOURASSA', 'BOURBONNIER', 'BOURCHIER', 'BOURDETT', 'BOURDETT/STEEL', 'BOURDETTE', 'BOURGET', 'BOURJOTTE/LESPERANCE', 'BOURK', 'BOURKE', 'BOURNS', 'BOUS', 'BOUSLAUGH', 'BOUSSEY', 'BOUTHELLIER', 'BOUTHILLIER', 'BOUTILLET', 'BOUTILLIER', 'BOUTIN', 'BOVARD', 'BOWAN', 'BOWBEER', 'BOWBEER/BREWER', 'BOWBIER', 'BOWDEN', 'BOWEN', 'BOWEN/CARMAN', 'BOWEN/CULBERTSON', 'BOWEN/DEMOREST', 'BOWEN/DIMONT', 'BOWEN/KIMMERLY', 'BOWEN/PALMER', 'BOWEN/PORT', 'BOWEN/RISELAY', 'BOWEN/SHAVER', 'BOWENS', 'BOWER', 'BOWERMAN', 'BOWERMAN/MORDEN', 'BOWERS', 'BOWES', 'BOWIE', 'BOWIE/BUIES', 'BOWKER', 'BOWKET', 'BOWKETT', 'BOWLBY', 'BOWLES', 'BOWLEY', 'BOWLING', 'BOWMAN', 'BOWMAN/BELLINGER', 'BOWMAN/BOUKE', 'BOWMAN/CLARK', 'BOWMAN/DEFOREST', 'BOWMAN/MATLACK', 'BOWN', 'BOWNEY', 'BOWRON', 'BOWSER/BOWSEN', 'BOWSFIELD', 'BOXALL', 'BOYCE', 'BOYCE/HARTMAN', 'BOYD', 'BOYD/McINTIRE', 'BOYDE', 'BOYEA', 'BOYER', 'BOYER/COMER', 'BOYERS', 'BOYES', 'BOYL', 'BOYLAN', 'BOYLE', 'BOYLES', 'BOYS', 'BOYSEE', 'BOYTON', 'BRACK', 'BRACKBILL', 'BRACKEN', 'BRACKENREED', 'BRACKENRIDGE', 'BRACKETT', 'BRACKIN', 'BRACKLEY', 'BRADBENT', 'BRADBURN', 'BRADBURNE', 'BRADEY', 'BRADFORD', 'BRADFORD/SELEE', 'BRADISH', 'BRADLEY', 'BRADLEY/MOOR', 'BRADLY', 'BRADNER', 'BRADNOCK', 'BRADSHAW', 'BRADSHAW/COLLINS', 'BRADSHAW/DIAMOND', 'BRADSHAW/LARUE', 'BRADSHAW/VANDERLISS', 'BRADSTEAD/AULT', 'BRADT', 'BRADT/BENDER', 'BRADT/HAINER', 'BRADT/YOUNG', 'BRADWELL', 'BRADY', 'BRAGG', 'BRAILY', 'BRAKENRIDGE', 'BRALY', 'BRAMORSKEY', 'BRAMORSKY', 'BRAMOUSKY', 'BRANAGAN', 'BRANAN', 'BRANDON', 'BRANDT', 'BRANDTS', 'BRANDTS/BRANTS', 'BRANDYMAN', 'BRANDYMANN', 'BRANIGAN', 'BRANNAGH', 'BRANNAH', 'BRANNAN', 'BRANNEGAN', 'BRANNEN', 'BRANNON', 'BRANT', 'BRANT/DESERONTWE', 'BRANTFORD/REED', 'BRANTS', 'BRASH', 'BRASS', 'BRASS/MATTICE', 'BRASS/MATTIN', 'BRASS/ROUSEHORNE', 'BRATH', 'BRATT', 'BRAUNCIS', 'BRAY', 'BRAY/ANDERSON', 'BRAYLEY', 'BRAYLEY/LAW', 'BRAYTON', 'BRAYTON/WEART', 'BRAZEY', 'BRAZIL', 'BRAZLE', 'BREAD', 'BREADEN', 'BREADNER', 'BREADON', 'BREADY', 'BREAK', 'BREAKENRIDGE', 'BREAKENRIGHT', 'BREAKY', 'BREARLY', 'BREATHWAITE', 'BREAULT', 'BREBNER', 'BRECKAN', 'BRECKON', 'BREEN', 'BREGARE', 'BREINICH', 'BREMBLE', 'BREMICH', 'BREMMER', 'BREMNER', 'BRENAGH', 'BRENAN', 'BRENEMAN', 'BRENNAN', 'BRENNAN/PETERSON', 'BRENNEN', 'BRENT', 'BRENTON', 'BRESEE', 'BRESNAHAN', 'BRESSE', 'BRESSEE', 'BRETHWAITH', 'BRETNER', 'BRETT', 'BREWER', 'BREWERTON', 'BREZE', 'BREZEE', 'BRIAN', 'BRICE', 'BRICK', 'BRICKER', 'BRICKMAN', 'BRICOT', 'BRIDGAM', 'BRIDGE', 'BRIDGEFORD', 'BRIDGEMAN', 'BRIDGES', 'BRIDGEWATER', 'BRIDGLAND', 'BRIDGMAN', 'BRIEN', 'BRIENLY', 'BRIERLY', 'BRIGGS', 'BRIGHAM', 'BRIGHAM/BREWSTER', 'BRIGHT', 'BRIGS', 'BRIKIE', 'BRILL', 'BRILLARD', 'BRILLINGER', 'BRIMMER', 'BRINDLEY', 'BRINK', 'BRINK/BRADT', 'BRINKERHOOF', 'BRINKMAN', 'BRINLEY', 'BRINSMEAD', 'BRINTNALL', 'BRIODY', 'BRISARD', 'BRISBOIS', 'BRISCO', 'BRISCOE', 'BRISCOE/BELL', 'BRISLANE', 'BRISON', 'BRISTOE', 'BRISTOL', 'BRITAIN', 'BRITAIN/BRITTIN', 'BRITTON', 'BROAD', 'BROADBANT', 'BROADBENT', 'BROADIE', 'BROADWICK', 'BROCK', 'BRODAY', 'BRODDY', 'BRODEUR', 'BRODIE', 'BRODRICK', 'BRODY', 'BROEFFEL/BREEFFEL', 'BROFFEL', 'BROFFEY', 'BROGDEN', 'BROGDIN', 'BROGDON', 'BROMLY/ROSS', 'BROOK', 'BROOKE', 'BROOKER', 'BROOKES', 'BROOKING', 'BROOKS', 'BROOKS/BARRETT', 'BROOKS/BENEDICT', 'BROOKS/COCKMAN', 'BROOKS/COLE', 'BROOKS/CORBMAN', 'BROOKS/MEDDAUGH', 'BROOKS/TURGERSON', 'BROOKSBANK', 'BROOME', 'BROOMHEAD', 'BROONER', 'BROPHEY', 'BROPHY', 'BROSE', 'BROTHERS', 'BROTHERSTON', 'BROUGH', 'BROUGHMAN', 'BROUGHTON', 'BROUK', 'BROUSE', 'BROUSE/ADAMS', 'BROUSE/BOUCK', 'BROUSE/CARMAN', 'BROUSE/KARMAN', 'BROUSE/PARLOW', 'BROUSE/SHAVER', 'BROUSTER', 'BROWCE', 'BROWCE/COON', 'BROWDERS', 'BROWER', 'BROWN', 'BROWN/COON', 'BROWN/FAIRFIELD', 'BROWN/FERGUSON', 'BROWN/FREEMAN', 'BROWN/HAWEN', 'BROWN/HURLBURT', 'BROWN/JUDSON', 'BROWN/MATICE', 'BROWN/MCILMOYLE', 'BROWN/MCLEAN', 'BROWN/MOTT', 'BROWN/MULLOY', 'BROWN/McINTIRE', 'BROWN/NICHOLSON', 'BROWN/ROBBINS', 'BROWN/SNIDER', 'BROWNE', 'BROWNELL', 'BROWNELL/CLINE', 'BROWNELL/COUNTRY', 'BROWNELL/SERVICE', 'BROWNELLE/BROWNHILL', 'BROWNLEE', 'BROWNLEY', 'BROWNLIE', 'BROWNLY', 'BROWNSON', 'BROWNSON/HAFFMAN', 'BROWNWICK', 'BROWSE', 'BRUCE', 'BRUCE/DAVY', 'BRUCK', 'BRUEN', 'BRUGERE', 'BRULE', 'BRUMGET', 'BRUMIGEM', 'BRUMIGEM/BRUMIGEN', 'BRUMWELL', 'BRUND', 'BRUNDAGE', 'BRUNDAGE/YOUREX', 'BRUNDEGE', 'BRUNDICH', 'BRUNDIDGE', 'BRUNDIGE', 'BRUNDREDGE', 'BRUNDRIDGE', 'BRUNELLE', 'BRUNER', 'BRUNGER', 'BRUNHERD', 'BRUNK', 'BRUNSON', 'BRUSH', 'BRUSH/CURRY', 'BRUSSEAUX', 'BRUSTER', 'BRUTON', 'BRUTON/FINNERON', 'BRYAN', 'BRYANS', 'BRYANT', 'BRYANT/McLEAN', 'BRYCE', 'BRYDEN', 'BRYDON', 'BRYDONE', 'BRYERS', 'BRYNES', 'BRYSON', 'BUCANNAN/BUCHANNAN/BUCKANNAN', 'BUCH', 'BUCHAM', 'BUCHAN', 'BUCHANAN', 'BUCHANAN &amp; BARKER', 'BUCHANAN/CRAWFORD', 'BUCHANAN/CRYSLER', 'BUCHANNAN', 'BUCHLEY', 'BUCHNER', 'BUCHNER/BOUGENER', 'BUCHNER/BOUGHNER', 'BUCHNER/BOUGHNER/AINSLEY', 'BUCHNER/BOUGNER', 'BUCHNER/BUGHGONER', 'BUCHNER/GRAHAM', 'BUCK', 'BUCK/BALDWIN', 'BUCK/BOUCH', 'BUCK/HAGERMAN', 'BUCK/HAGGART', 'BUCK/ORSER', 'BUCK/SNUKE', 'BUCKBOROUGH', 'BUCKHAM', 'BUCKHANAN/McDONELL', 'BUCKLEY', 'BUCKLEY/THOMAS', 'BUCKNER', 'BUCKNER/McGAN', 'BUDD', 'BUELL', 'BUELL/BAUCKE', 'BUELL/SHERWOOD', 'BUFFA', 'BUGBEE', 'BUGG', 'BUGGENER', 'BUGGIE', 'BUGIN', 'BUGLE LE', 'BUIE', 'BUIS', 'BUIS/AMEY', 'BUIS/BICE', 'BUISE', 'BUKER/BAKER', 'BUKER/FRENCH', 'BULEY', 'BULGER', 'BULHAM', 'BULKELEY', 'BULL', 'BULL/CLEMENT', 'BULLARD', 'BULLEN', 'BULLER', 'BULLES', 'BULLESS', 'BULLEY', 'BULLIN', 'BULLISS', 'BULLIVET', 'BULLIVIT', 'BULLOCK', 'BULLY', 'BULMAN', 'BULMER', 'BULSON', 'BULTEEL', 'BUMP', 'BUNBURRY', 'BUNBURY', 'BUNCE', 'BUNDIGE', 'BUNFIELD', 'BUNKER', 'BUNN', 'BUNTING', 'BUNTING/MARCKLE', 'BUNTON', 'BUNYAN', 'BURBANK', 'BURBANKS', 'BURBY', 'BURCH', 'BURCH/BIRCH', 'BURCHELL', 'BURCHILL', 'BURCK', 'BURCKHOLDER', 'BURD', 'BURDEN', 'BURDETT', 'BURDETT/BOURDETT', 'BURDICK', 'BURDOCK', 'BURDON', 'BURDS', 'BURDSELL', 'BURDSLEE', 'BUREAU', 'BURGAR', 'BURGART', 'BURGER', 'BURGES', 'BURGESS', 'BURGHAM', 'BURGHER', 'BURGHMANN', 'BURGIS', 'BURGISS', 'BURGOINE', 'BURGOYNE', 'BURK', 'BURKE', 'BURKET', 'BURKHOLDER', 'BURLEIGH', 'BURLEY', 'BURLEY/BALDWIN', 'BURLEY/LEE', 'BURLEY/SNIDER', 'BURLINGAME', 'BURLINGHAM/TANKEN', 'BURN', 'BURNELL', 'BURNES', 'BURNET', 'BURNET/VANARDEN', 'BURNETT', 'BURNETT/BAKER', 'BURNETT/COLLINGWOOD', 'BURNHAM', 'BURNHAM/AUGER', 'BURNHAM/CLAWSON', 'BURNHAM/FERGUSON', 'BURNHAM/HUFF', 'BURNITT', 'BURNS', 'BURNS/BYRNE', 'BURNSIDE', 'BURNSIDE/BROUSE', 'BURON', 'BURR', 'BURRELL', 'BURRETT', 'BURRILL', 'BURRISON', 'BURRISON/JOHNSTOWN', 'BURRIT', 'BURRIT/DULMAGE', 'BURRITT', 'BURROWES', 'BURROWS', 'BURRY', 'BURST', 'BURSTELL', 'BURT', 'BURTCH', 'BURTCH/BRADT', 'BURTCH/CORLIS', 'BURTCH/SEHRAM', 'BURTON', 'BURTON/ALGUIRE', 'BURWELL', 'BURWELL/BENEDICT', 'BURWELL/BISSELL', 'BURY', 'BUSCH', 'BUSH', 'BUSH/CROWDER', 'BUSHBY', 'BUSHEY', 'BUSHNELL', 'BUSNEY', 'BUSSELL', 'BUSVAK', 'BUTCH', 'BUTCHART', 'BUTCHER', 'BUTH', 'BUTLER', 'BUTLER/BERRIE', 'BUTLER/BOURDETT', 'BUTLER/COLTMAN', 'BUTLER/CROOKS', 'BUTLER/DAYTON', 'BUTLER/MATTHEWS', 'BUTLER/SLEMENT', 'BUTLER/STEVENS', 'BUTLER/WOOD', 'BUTTER', 'BUTTERFIELD', 'BUTTERFIELD/CLARK', 'BUTTERWORTH', 'BUTTLER', 'BUTTON', 'BUTTS', 'BUXTON', 'BUZBY', 'BY', 'BYAN', 'BYARD', 'BYARS', 'BYCRAFT', 'BYER', 'BYERLAY', 'BYERS', 'BYRNE', 'BYRNES', 'BYRNS', 'Babcock', 'Babcock/Lewis', 'Babcock/Ransier', 'Babcock/Scott', 'Babcock/Shannon', 'Babcock/Smith', 'Babcock/Wannamaker', 'Babcock/Wannomaker', 'Babcock/Weese', 'Babcook/Scott', 'Bachman', 'Bacon', 'Badcock', 'Badger', 'Badgerow', 'Badgley', 'Badichon/Labadie', 'Badwin', 'Bag', 'Bagley', 'Baice/Langhorn', 'Bailey', 'Bailey/McCarthy', 'Bailey/Sawyers', 'Baily', 'Bain', 'Baine', 'Baker', 'Baker/Miller', 'Baker/Skinner', 'Baker/Smith', 'Baker/Snyder', 'Baker/Wade', 'Baker/Waldorff', 'Baker/Young', 'Balance of land', 'Balderson', 'Baldwin', 'Baldwin/Webster', 'Bale', 'Ball', 'Ball/Long', 'Ball/Servos', 'Ball/Sweep', 'Ball/Walker', 'Ball/Wilkeson', 'Balmain/McDonell', 'Balton/Rose', 'Bamber', 'Banal Grist Mill', 'Banal Mill', 'Bannerman', 'Bannister', 'Banta/Vanwyck', 'Banter', 'Baptist Church', 'Baptist Church at Amherstburg.', 'Baptist Society', 'Baptists of the township of Artemesia.', 'Barber', 'Barckley/Outerkirk', 'Barckly/Markle', 'Barclay', 'Barclough', 'Barden', 'Barhigt', 'Bark/Lyons', 'Barkely/Shell', 'Barkley/Whiteker', 'Barkley/Witticker', 'Barkly/Marcellia/Massales', 'Barlow', 'Barnard/Nichols', 'Barnard/Randell', 'Barnard/Thomas', 'Barnard/Walker', 'Barnet/Landon', 'Barnet/Rood', 'Barnhart/Gallingher', 'Barnhart/MacDaniel', 'Barnhart/Marks', 'Barnhart/Rombough', 'Barnhart/Sills', 'Barnhart/Stinehoof', 'Barnhart/Stringer', 'Barnhart/Tilton', 'Barnheart/Runion', 'Barnheart/Waldenbarger', 'Barnrom', 'Barns', 'Barr', 'Barrie', 'Barrie &amp; Kempenfeldt Park Lots', 'Barrie (Market House Simco Dist.)', 'Barrie (Town lots for Jail &amp; Court House)', 'Barrie (Wesleyan Methodists Soc.)', 'Barrie (Wesleyan Methodists Society)', 'Barrie Members of the church of Scotland', 'Barrington', 'Barron', 'Barry', 'Bart', 'Bartels', 'Bartholomew', 'Bartlett', 'Bartley/Green', 'Bartley/Lyst', 'Bartley/Nicholson', 'Bartley/Shewman', 'Bartlough', 'Bartly/Green', 'Barton', 'Barton/Shatford', 'Barton/Smades', 'Barton/Smedes', 'Barton/Thomson', 'Barton/Wiley', 'Bartram', 'Baseer', 'Basset', 'Bassey/Smith', 'Bastedo', 'Bastedo/Rogers', 'Bastian/Stewart', 'Bates/Ghent', 'Bath Circuit, Wesleyan Methodist Church', 'Bathurst', 'Bathurst District Clergy Reserves', 'Batter/Merkley', 'Batter/Wright', 'Battiam', 'Battian', 'Baxter', 'Bay Indians', 'Bay de Chaleur (Timber Agency)', 'Bay of Quinte', 'Bayeaux/Vincent', 'Beach', 'Beach Lots', 'Beaches in Quebec', 'Beal', 'Beaman', 'Beard', 'Bearman', 'Beasley/Stegman', 'Beasley/Van Every', 'Beatie', 'Beatson', 'Beatys', 'BeauSoleil', 'Beaugrand', 'Beaumont', 'Beaver', 'Bebee/Smith', 'Becker', 'Becket', 'Beckwith', 'Bedal', 'Bedell', 'Bedford &amp; Sheffield (Clergy Reserves &amp; School lands)', 'Bedford, Reservation for Schools', 'Bedstead', 'Beeman', 'Beick', 'Beikie', 'Belding', 'Bell', 'Bell/Huff', 'Bell/Scott', 'Bell/Sharp', 'Bell/Sills', 'Bell/Switzer', 'Bell/Taylor', 'Bellamy', 'Bellar/Le Motte', 'Bellau', 'Bellaw', 'Belleperche', 'Belleville (Moira River)', 'Belleville town', 'Belleville, Minister &amp; Church Wardens of C. of E.', 'Belleville, President and Board of Police.', 'Belleville, Rev. Campbell for parsonage and glebe (C. of E.)', 'Belleville, church of England, parsonage and glebe (Rev. Thomas Campbell)', 'Bellows', 'Beman', 'Bencroft', 'Bender', 'Bender/Murry', 'Bender/Stelmayon', 'Bender/Wood', 'Benedict/Lossee', 'Benet', 'Benett', 'Benidick/Olds', 'Benn/Sills', 'Benn/Simmons', 'Benn/Soles', 'Bennet', 'Bennett', 'Bennitt', 'Benson', 'Benson/Richardson', 'Benson/Steel', 'Benson/Terell', 'Bent', 'Bentinck &amp; Glenelg School Section', 'Bentinck School Trustees', 'Bentley/Jayne', 'Benton', 'Berczy', 'Berdan/Thomson', 'Bergeron', 'Bernard', 'Berney', 'Bernier', 'Berry', 'Berry/Ulman', 'Berry/Willman', 'Bertram', 'Besserer', 'Bessey', 'Bessey/Price', 'Bessil/Michel', 'Bessy/Newkirk/Newcark', 'Best', 'Bethune', 'Bethune/McKenzie', 'Bethune/Wilkinson', 'Bettys', 'Bettys/Mahon', 'Bieges', 'Biggars', 'Bighard', 'Bignal', 'Bigsby', 'Bill', 'Billows', 'Bills', 'Birch', 'Birch/Rowel', 'Bird', 'Birdsale/McDonald', 'Birdsall', 'Birdsall/Shotwell', 'Birmingham', 'Birn', 'Bisco', 'Bishop', 'Bishop of Nova Scotia', 'Bishop of Quebec', 'Bishop of Toronto', 'Bishop of York', 'Bishop, Coadjutor and Administrator of Regiopolis', 'Bissell/Landon', 'Black', 'Black/Sparks', 'Black/Umphrey', 'Blackburn', 'Blackley/Murrison', 'Blackman', 'Blackwell', 'Blackwood', 'Blades', 'Blain', 'Blair', 'Blake', 'Blakeby/McDonald', 'Blakely/Mix', 'Blakely/Toppin', 'Blaker/Ripsom', 'Blakley/Ruscow', 'Blan', 'Blanchard', 'Blandford, Brock District (Purchase of Clergy Reserve)', 'Blasdell', 'Bleecker', 'Bleex', 'Blond', 'Blondheim', 'Board for Education', 'Board of Ordnance', 'Board of Police', 'Board of Police of town of Belleville.', 'Board of School Trustees', 'Board of Trustees of the Thomas County Grammar School', 'Board of Trustees, Grammar School', 'Board of Works', 'Boardman', 'Bodart', 'Bogart', 'Bogart/Spicer', 'Bogert/Matheson', 'Boice/McGuire', 'Boice/Springer', 'Boice/Van Wicklin', 'Boid/Shipman', 'Boies/Leonard', 'Boisbouscache village plot', 'Bolduc', 'Bolton', 'Bolton/Sax', 'Bond', 'Bone', 'Bonesteell/Willcox', 'Bonet', 'Bonnycastle', 'Bonsteel/Laushway', 'Bonsteel/Smith', 'Booth', 'Booth/Stalker', 'Booth/Terry', 'Boreson/Manhart', 'Borrat', 'Borrie', 'Borrit/Wright', 'Boshart', 'Bostwick', 'Bosworth', 'Botsford', 'Boucher', 'Boucher/Loucks', 'Bouchette/Reynolds', 'Bouchier', 'Bouchner/Willson', 'Bouchuer/Stringer', 'Bouck', 'Bouck/Garlough', 'Bouck/Reid', 'Boughner/Owen', 'Boughner/Willson', 'Boulton', 'Boulton/McMurphy', 'Boundary Commission', 'Boundary Lines', 'Boundary line the township Beverly', 'Boundary lines of lots', 'Bourne', 'Boutlon/Rawley', 'Bowac/Markle', 'Bowdish', 'Bowen', 'Bowen/More', 'Bowen/Sager', 'Bowen/Shaver', 'Bower/Scott', 'Bower/Worden', 'Bowerman', 'Bowers/Scott', 'Bowes', 'Bowie', 'Bowling/Goslee', 'Bowman', 'Bowman/Gisso', 'Bowman/Schram', 'Bowman/Scott', 'Bowman/Snure', 'Bo</t>
+          <t>['0', '100 Acres Lots', '8th range of Grenville', 'ABBA', 'ABBE', 'ABBEE', 'ABBOT', 'ABBOTT', 'ABBY', 'ABEL', 'ABER', 'ABERCROMBIE', 'ABERNATHER', 'ABERNETHY', 'ABRAHAM', 'ABRAHAM/COLE', 'ABRAHAMS', 'ABRAHAMS/COLE', 'ABRAM', 'ABRAMS', 'ABRAMS/SNYDER', 'ABRAY', 'ABURNATHY', 'ACCARMAN', 'ACHESON', 'ACHISON', 'ACKER', 'ACKLAND', 'ACKLEY', 'ACKMAN', 'ACOR', 'ACRE', 'ACTON', 'ADAIR', 'ADAIR/CRAWLEY', 'ADAM', 'ADAM/LARAMEY', 'ADAMS', 'ADAMS/ADNANS', 'ADAMS/CLIFFORD', 'ADAMS/COONS', 'ADAMSON', 'ADDISON', 'ADKINS', 'ADKINSON', 'ADSIT/HAIRLAND', 'ADY', 'ADZIT', 'AGER', 'AGLER', 'AGLOR/ACHLER', 'AGNEW', 'AHIER/ALICER', 'AHSMAN', 'AHSTON', 'AICKMAN', 'AIKEN', 'AIKIN', 'AIKINS', 'AIKMAN', 'AILEY', 'AINLAY', 'AINSE', 'AINSE/MONTURE', 'AINSLEY', 'AINSLIE', 'AINSWORTH', 'AIRD', 'AIREY', 'AIREYS', 'AIRHART', 'AIRHEART', 'AIRTH', 'AISSANCE', 'AITCHISON', 'AITHENS', 'AITKEN', 'AITKENS', 'AITKIN', 'AITKINS', 'AKE', 'AKERLY', 'AKEY', 'AKIN', 'AKINS', 'AKROYD', 'ALAN', 'ALBERSON', 'ALBERT', 'ALBERTSON', 'ALBERTSON/POWELL/POWLY', 'ALBRANT', 'ALBRIGHT', 'ALCOCK', 'ALCOMBRACK', 'ALCORN', 'ALDER', 'ALDERICE', 'ALDERTON', 'ALDGEO', 'ALDRICH', 'ALDRICK', 'ALDWORTH', 'ALEAY', 'ALEXANDER', 'ALFORD', 'ALGAE', 'ALGEA', 'ALGEO', 'ALGER', 'ALGIER', 'ALGIO', 'ALGIRE', 'ALGOE', 'ALGUINE', 'ALGUIRE', 'ALISON', 'ALLAIR', 'ALLAN', 'ALLARD', 'ALLAWAY', 'ALLBRIGHT', 'ALLCOCK', 'ALLCOMBRACK', 'ALLCOTT', 'ALLCOX', 'ALLD', 'ALLEN', 'ALLEN/COLE', 'ALLEN/COOPER', 'ALLEN/CUMMING', 'ALLEN/MOSHER', 'ALLENDER', 'ALLEY', 'ALLGER', 'ALLIBONE', 'ALLICE', 'ALLIN', 'ALLIS', 'ALLISON', 'ALLPORT', 'ALLRIGHT', 'ALLSOP', 'ALLWOOD', 'ALMAS', 'ALMIS', 'ALMS', 'ALPHOUGH', 'ALSTEN', 'ALSTON', 'ALT', 'ALTENBURG', 'ALTHOUSE', 'ALTHOUSER', 'ALTON', 'ALWARD', 'ALWAY', 'ALWOOD', 'ALYEA', 'AMABLE', 'AMAN', 'AMBLER', 'AMBRIDGE', 'AMBROSE', 'AMELYER', 'AMERY', 'AMES', 'AMEY', 'AMEY/BAKER', 'AMIOTTE', 'AMLEA', 'AMLIN', 'AMMERMAN', 'AMMON', 'AMOR', 'AMORY', 'AMOS', 'AMPHLETT', 'AMSTED', 'AMUS', 'AMY', 'AMY/DAVY', 'ANABELD', 'ANCASTER', 'ANCASTER/CROOKS', 'ANCASTER/CRYSLER', 'ANDERSON', 'ANDERSON/CLARKE', 'ANDERSON/CRYDERMAN', 'ANDERSON/CUMMINGS', 'ANDERSON/CURTIS', "ANDERSON/M'BEAN", 'ANDERSON/McGRATH', 'ANDERTON', 'ANDRASS', 'ANDRES', 'ANDRESS', 'ANDREW', 'ANDREWS', 'ANDRICK', 'ANDRUS', 'ANDRUSS', 'ANGELL', 'ANGER', 'ANGLEMIRE', 'ANGUISH', 'ANNABLE', 'ANNANCE', 'ANNAND', 'ANNET', 'ANNETT', 'ANNIS', 'ANSLEY', 'ANSON', 'ANTAILLA', 'ANTALIA', 'ANTALLIA', 'ANTAYA', 'ANTHON', 'ANTHONY', 'APPELBEE', 'APPELLEE', 'APPLEBEE', 'APPLEBY', 'APPLEGARTH', 'APPLETON', 'APRIL', 'ARBURTHNOT', 'ARBUTHNOT', 'ARCHAMBAULT', 'ARCHBOLD', 'ARCHDEKEN/ARCHDEKIN', 'ARCHER', 'ARCHIBALD', 'ARCONAITE', 'ARDAGH', 'ARDELL', 'ARDIEL', 'ARDIELL', 'ARDILL', 'ARDLE', 'ARGUE', 'ARHART', 'ARIVISON', 'ARKELL', 'ARKENBRACK', 'ARKLAND', 'ARLESS', 'ARLINGTON', 'ARLSHOW', 'ARMISTEAD', 'ARMITAGE', 'ARMON', 'ARMOUR', 'ARMS', 'ARMSON', 'ARMSTRONG', 'ARMSTRONG/DOPP', 'ARNER', 'ARNISON', 'ARNIT', 'ARNOLD', 'ARNOLD/CLOWES', 'ARNOLDI', 'ARNOT', 'ARNOTE', 'ARNOTT', 'ARQUART', 'ARROWSMITH', 'ARTER/ARTIS', 'ARTHUR', 'ARTHUR/GIBSON', 'ARTHURS', 'ARVISON', 'ASBURN', 'ASH', 'ASHBAUGH', 'ASHBLAUGH', 'ASHBOUGH', 'ASHBRIDGE', 'ASHBURN', 'ASHBURRY', 'ASHBY', 'ASHFIELD', 'ASHFORD', 'ASHFORD/CROSS', 'ASHLEY', 'ASHMAN', 'ASHTON', 'ASHWELL', 'ASHWORTH', 'ASKEW', 'ASKIN', 'ASKINS', 'ASKWITH', 'ASLEY', 'ASOPH', 'ASPREY', 'ASSEKINACK', 'ASSELIN', 'ASSELSBYNE/CORBAN', 'ASSELSTINE', 'ASSELSTINE/DAVY', 'ASSELTINE', 'ASTON', 'ATCHESON', 'ATCHISON', 'ATKIN', 'ATKINS', 'ATKINSON', 'ATTHILL', 'ATTWELL', 'ATTWOOD', 'ATWOOD', 'AUBERRY', 'AUBERT', 'AUGER', 'AUGER/ANGER', 'AUGUSTIN', 'AUGUSTINE', 'AULDJO', 'AULDJO &amp; MAITLAND', 'AULDJO/McDONELL', 'AULIN', 'AULT', 'AULT/LOUCKS', 'AUMOND', 'AUREY', 'AURT', 'AUSEM', 'AUSMAN', 'AUSTEN', 'AUSTIN', 'AUTIN', 'AUTINO', 'AVERILL', 'AVERY', 'AVISON', 'AVRILL', 'AWREY', 'AXFORD', 'AXHAM', 'AYER', 'AYLBOYNE', 'AYLEN', 'AYLMER', 'AYLSWORTH', 'AYLUM', 'AYLWARD', 'AYNGE', 'AYOTT', 'AYRES', 'Abbot', 'Abbott', 'Abell', 'Abrams/Lockwood', 'Ackler/Warren', 'Ackley/Meritt', 'Acque', 'Acre/Oswald', 'Acre/Trowbridge', 'Acres', 'Acton', 'Adair/Springsteen', 'Adair/Ward', 'Adam', 'Adam/Mattice', 'Adams', 'Adams/McNeil', 'Adams/Nudle', 'Adams/Sage', 'Adams/Snider', 'Adams/Willson', 'Adamson', 'Affairs of the Canada Company with Government.', 'African Baptist Church', 'Agency of the Seigniory of Lauzon', 'Agricultural Society', 'Agricultural Society Middlesex', 'Ahern', 'Aidel', 'Aird', 'Airhash/Wager', 'Airth', 'Aitkin', 'Aker/Jones', 'Albrant/Statard', 'Albrant/Stodard', 'Albright', 'Alderson', 'Aldridge', 'Algeor', 'Alger', 'Alger/Mosher', 'Alger/Van Blarcom', 'Algie', 'Algire', 'Algire/Van Blarcom', 'Alguira/Jacocks', 'Alguire/Loucks', 'Alguire/Stallmayer', 'Alguire/Wallisoe', 'Allair', 'Allan', 'Allan/Wintermute', 'Allbright/Albright', 'Allen', 'Allen/Mirick', 'Allen/Vanalstine', 'Allen/Watson', 'Allison', 'Allison/McTaggart', 'Alphin', 'Alston', 'Altemas', 'Althouse/Van Buren', 'Alvord', 'Alway', 'Alyea', 'Amalicite Indians', 'Amey/Snyder', 'Amory', 'Anable', 'Anderson', 'Anderson/LaCompte', 'Anderson/Lundy', 'Anderson/Macdonell', 'Anderson/Main', 'Anderson/McCuen', 'Anderson/Reid', 'Anderson/Ruderback', 'Anderson/Secord', 'Andrew', 'Andrews', 'Andrews/Morrill', 'Andrews/Mott', 'Andrews/Wright', 'Angell', 'Anger/House', 'Anger/McClintock', 'Anglican Church and Church Wardens', 'Anglican Presbyterians', 'Angst', 'Anguish/Lane', 'Angus', 'Annabel', 'Annable', 'Annable/Rowley', 'Anneser/Gibson', 'Annible/Wagner', 'Ansley/Merrill', 'Anson', 'Anton/Molyneux', 'Apostolic Missionary Church Wardens', 'Applegarth', 'Applicants for Clergy Reserves', 'Applicants for free grants', 'Applicants of Niagara', 'Application for Deeds, township of Arthur.', 'Application for lease of occupation of a certain block', 'Application for the Township of Grantham', 'Application for the concession of "Dewar Island"', 'Application of settlers for survey of Somerset, Stanfold and Maddington', 'Application to purchase Clergy Reserves in the County of Carleton.', 'Application to purchase lands in the township of Inverness', 'Application to purchase lot', 'Application to purchase lots in Orillia', 'Applications For the purchase of certain Clergy Reserved in Amaranth and Melancthon.', 'Applications for Lot 31 in 13 Concession in Zorra Township', 'Applications for grants', 'Applications for land', 'Applications for land script of officers', 'Applications for mining', 'Applications for purchase of Crown lands in Zone', 'Applications of the municipality of St. Vincent', 'Applications to buy lots', 'Applications to purchase land in -', 'Applications to purchase land in Sheffield', 'Applications to purchase lands', 'Applications to purchase lands in Gore of Somerset', 'Applications to purchase lots 26 &amp; 27', 'Appointment of Inspectors of Land in Upper and Lower Canada', 'Archar', 'Archbishop of Quebec', 'Archer', 'Archibald', 'Archiepiscopal Corporation of Quebec', 'Ardill', 'Argue', 'Arkell', 'Arkland', 'Arkley', 'Armatage', 'Armour', 'Armstrong', 'Armstrong/Marlett', "Armstrong/O'Neill", 'Armstrong/Welch', 'Arner/Whittle', 'Arnold', 'Arnold/Munson', 'Arnot', 'Arrangements proposed by the Receiver General (Peter Russell) For sending of patents to the different districts.', 'Arundel in relation to survey', 'Ash', 'Ashford/Mallery', 'Ashley', 'Ashman', 'Ashton', 'Askin', 'Askin/Richardson', 'Askins/Weatherhead', 'Aspenwall', 'Asselstine', 'Asselstine/Lessard', 'Asselstine/Watson', 'Association of Bellechasse.', 'Association of Bellechasse; relative to lands in Buckland.', 'Asten/Snitzinger', 'Atchison', 'Atkins', 'Atkinson', 'Attorney General issue of a fiat dispensed with in certain cases.', 'Attorney General re Church Land', 'Attorney General respecting Survey near Niagara Falls.', 'Attorney General respecting leases of the Crown and Clergy Reserves.', 'Attorney General respecting surrender of certain patents in the township of Hope.', "Attorney General's report", 'Attorney General, opinion land set apart for Government House had been promised as an endowment for hospital.', 'Attorney General, opinion respecting delivery of Patent Deeds.', 'Auction', 'Auger/Near', 'Ault/Redmond', 'Ault/Snider', 'Ault/Thomb', 'Ault/Weart', 'Austin/Marr', 'Authority for verification of outlines of Shawenagan', 'Authority to advertise lots', 'Authority to perform Surveys', 'Avery', 'Awrey', 'Aynge', 'Ayotte', 'Ayrs', 'Ayton', 'Azereas', 'BAAR', 'BABBIT', 'BABCOCK', 'BABCOCK/AYNHART', 'BABCOCK/CLEVELAND', 'BABCOCK/COLE', 'BABCOCK/COOK', 'BABCOCK/HARPELL', 'BABCOCK/SNIDER', 'BABCUCK', 'BABESK/COLE', 'BABINEAU', 'BABY', 'BACH', 'BACHAMAN', 'BACHE', 'BACHUS', 'BACKEN/BACON', 'BACKER', 'BACKHOUSE', 'BACKHOUSE/McMICHAEL', 'BACKSTER', 'BACKUS', 'BACON', 'BADDELEY', 'BADDER', 'BADGELY', 'BADGEN', 'BADGER', 'BADGERON', 'BADGLEY', 'BADICHON', 'BAGE', 'BAGERO', 'BAGG', 'BAGLEY', 'BAGSHAW', 'BAGSLEY', 'BAGWELL', 'BAID', 'BAIL/PRETEUS', 'BAILEY', 'BAILEY/BALEY', 'BAILEY/DOVER', 'BAILEY/WINTERMULER', 'BAILIE', 'BAILLIE', 'BAILLY', 'BAILY', 'BAIN', 'BAINES', 'BAIRD', 'BAIRDEN', 'BAITS', 'BAITSON', 'BAKEN', 'BAKEN/SMITH', 'BAKER', 'BAKER/CARPENTER', 'BAKER/COOK', 'BAKER/DAVY', 'BAKER/FRANKLIN', 'BAKER/FRANKS', 'BAKER/MILLARD', 'BAKER/McARTHUR', 'BAKER/NOODLE', 'BAKEWELL', 'BALANCE', 'BALCH', 'BALDERSON', 'BALDWIN', 'BALDWIN/SERVICE', 'BALDWIN/SHAW', 'BALDWINS', 'BALDWYN', 'BALEY', 'BALFOUR', 'BALIE', 'BALKE', 'BALKWELL', 'BALKWILL', 'BALL', 'BALL/CREEN', 'BALL/CRYSLER', 'BALLANTYNE', 'BALLARD', 'BALLENTINE', 'BALM/DOCHSTADER', 'BALMER', 'BALTEEL', 'BALTY', 'BAMBER', 'BAMBRIDGE/BAMBIDGE', 'BAMFORD', 'BANCK', 'BANCRAFT', 'BANCROFT', 'BANCROFT/BENCROFT', 'BANDER', 'BANE', 'BANER', 'BANFIELD', 'BANGHART', 'BANGHART/BAUGHART', 'BANGS', 'BANKER', 'BANKS', 'BANNEAU', 'BANNERMAN', 'BANNERMAN/BOWERMAN', 'BANNISTER', 'BANNON', 'BANTA', 'BAPTIST', 'BARABE', 'BARBAR', 'BARBARE', 'BARBAREE', 'BARBEAU', 'BARBER', 'BARBER/PELLET', 'BARBERE', 'BARBO', 'BARBOUR', 'BARBU', 'BARCHKLY', 'BARCHLE', 'BARCKLEY', 'BARCKLY', 'BARCLAY', 'BARCLEY', 'BARCLEY/BARKELLEY', 'BARDAN/CLARK', 'BARDBURN', 'BARDEN', 'BARDIN/McNIEL', 'BARDON', 'BARDSLEE', 'BAREFOOT', 'BARGAR', 'BARGER', 'BARGER/FOSTER', 'BARHLEY', 'BARIL', 'BARJARO', 'BARK', 'BARKALEY', 'BARKELLY', 'BARKER', 'BARKHOUSE', 'BARKLAY', 'BARKLEY', 'BARKLEY/AULT', 'BARKLEY/GARLOUGH', 'BARKLEY/MARKLEY', 'BARKLEY/STRADER', 'BARKLEY/UTTMAN', 'BARLEY', 'BARLINGER', 'BARLOU/BAILIE', 'BARLOW', 'BARLOWE', 'BARNAM', 'BARNARD', 'BARNELL', 'BARNES', 'BARNET', 'BARNET/LANDON', 'BARNETT', 'BARNEY', 'BARNHAM', 'BARNHAM/DACHSTEDER', 'BARNHARD', 'BARNHART', 'BARNHART/MARSH', 'BARNHART/PRENTICE', 'BARNHART/RAMBOUGH', 'BARNHART/SILLS', 'BARNHART/WAGER', 'BARNIER', 'BARNS', 'BARNSIDE', 'BARNUM', 'BARNUM/CLARYSDALE', 'BARNUM/HAME', 'BARO', 'BARON', 'BARON/LAFRENIERE', 'BARR', 'BARRACLOUGH', 'BARRAGER/LEE', 'BARREL', 'BARRELL', 'BARRET', 'BARRETT', 'BARRETT/WALKER', 'BARRETTE', 'BARRICHER/STRADER', 'BARRIE', 'BARRIER', 'BARRIGER', 'BARRIL', 'BARRITT', 'BARRON', 'BARROWMAN', 'BARRY', 'BART', 'BARTCH', 'BARTELEY', 'BARTELL/CARSCALLEN', 'BARTELS', 'BARTEN', 'BARTEN/DIXON', 'BARTH', 'BARTHE', 'BARTHOL', 'BARTHOLD', 'BARTHOLEMEW', 'BARTHOLOMAY', 'BARTHOLOMEW', 'BARTHOLOMEY', 'BARTHY', 'BARTLEMAN', 'BARTLES', 'BARTLES/McDOUGAL', 'BARTLET', 'BARTLET, SMITH &amp; others', 'BARTLETT', 'BARTLETT/DINGMAN', 'BARTLEY', 'BARTLY', 'BARTLY/NICHOLSON', 'BARTON', 'BARTON/BARTIN', 'BARTON/BOURDETT', 'BARTON/McCORD', 'BARTON/SMADES', 'BARTOW', 'BARTRON', 'BARWICK', 'BARWIS', 'BARY', 'BASKERRIL/BASKERVIL', 'BASKERVILLE', 'BASS', 'BASS/AMEY', 'BASSELL', 'BASSET', 'BASSETT', 'BASSETT/HOPPLE', 'BASSEY', 'BASSEY/SMITH', 'BASTABLE', 'BASTEDO', 'BASTIEN', 'BATE', 'BATEMAN', 'BATER', 'BATES', 'BATES/MATTICE', 'BATESON', 'BATHGATE', 'BATHIE', 'BATHURST', 'BATIE', 'BATNAN', 'BATTAM', 'BATTAY', 'BATTER', 'BATTER/BEDFORD', 'BATTER/POTTER', 'BATTER/WRIGHT', 'BATTERHAM', 'BATTERS', 'BATTERSBY', 'BATTGER', 'BATTIE', 'BATTLE', 'BATTY', 'BATTY/LOYST', 'BATY', 'BAUBIN', 'BAUGH', 'BAUGHANAN', 'BAUMES', 'BAUMSTARK', 'BAVENS', 'BAXTER', 'BAXTER/BINDER', 'BAXTER/MILLER', 'BAXTER/OATMAN', 'BAXTER/SHIPMAN', 'BAXTON', 'BAYCROFT', 'BAYER', 'BAYEUR', 'BAYLEY', 'BAYLY', 'BAYMAN', 'BAYMON', 'BAYNE', 'BAYNES', 'BEACH', 'BEACH/FREO', 'BEACH/SEELYE', 'BEACHER', 'BEACON', 'BEADFORD', 'BEADLE', 'BEADSTEAD', 'BEAGLE', 'BEAKON', 'BEAL', 'BEALE', 'BEALEY', 'BEALL', 'BEALSEY', 'BEAM', 'BEAM/MAY', 'BEAM/MILLS', 'BEAMAN', 'BEAMER', 'BEAMER/DOYLE', 'BEAMISH', 'BEAN', 'BEANE', 'BEARD', 'BEARD/STRADER', 'BEARDSLEY', 'BEARDSLEY/BANKER', 'BEARE', 'BEARMAN', 'BEARSS', 'BEARSS/STEEL', 'BEASLEY', 'BEASTED/FRYMIRE', 'BEATIE', 'BEATON', 'BEATRIE', 'BEATSKE', 'BEATSY', 'BEATTEY', 'BEATTIE', 'BEATTIE/SCRAM', 'BEATTON', 'BEATTY', 'BEATY', 'BEATYS', 'BEAUBIEN', 'BEAUCHAMP', 'BEAUDET', 'BEAUDRY', 'BEAUGRAND', 'BEAUMON', 'BEAUPORT', 'BEAUPR?', 'BEAUPR?/BOUPRIE', 'BEAUPRE', 'BEAUREGARD', 'BEAVIS', 'BEBEE', 'BEBEE/GROOMS', 'BEBEE/SEELY', 'BECHER', 'BECHSTED', 'BECHTEL', 'BECHTELL', 'BECK', 'BECKER', 'BECKER/BAKER', 'BECKERSTAFF', 'BECKERTON', 'BECKETT', 'BECKETT/BOWMAN', 'BECKFORD', 'BECKON', 'BECKON/BACON', 'BECKON/SKINNER', 'BECKOR', 'BECKWITH', 'BECKWITH/SILLS', 'BECKWORTH', 'BEDAL', 'BEDARD', 'BEDELL', 'BEDFORD', 'BEDICK/BEDSTED', 'BEDSTEAD/CASSELMAN', 'BEDSTED', 'BEDSTED/HANESTER', 'BEE', 'BEEBE', 'BEEBE/HART', 'BEECH', 'BEECHER', 'BEEDELL', 'BEEDLE', 'BEEMAN', 'BEEMER', 'BEER', 'BEERS', 'BEESON', 'BEETEN', 'BEETHAM', 'BEETON', 'BEEVAN', 'BEGG', 'BEGG/STAG', 'BEGHAN', 'BEGUE', 'BEIKIE', 'BEITH', 'BELANGER', 'BELCHER', 'BELCOUR', 'BELFORD', 'BELISLE', 'BELKNAP', 'BELL', 'BELL/CARSCALLEN', 'BELL/FINKLE', 'BELL/FRALIC', 'BELL/HARNES', 'BELL/HITCHCOCK', 'BELL/MERKLEY', 'BELL/PALMER', 'BELLAIRE', 'BELLAMY', 'BELLAN', 'BELLANT', 'BELLARD', 'BELLECK', 'BELLECOUR', 'BELLEFEUILLE', 'BELLEPERCHE', 'BELLER', 'BELLERE', 'BELLINGER', 'BELLINGER/OBERHOLD', 'BELLINGER/SLINGERLAND', 'BELLINGHAM', 'BELLIVEAU', 'BELLOWS', 'BELLUE', 'BELNAP', 'BELNAP/MASTERS', 'BELONGE', 'BELROSE', 'BELTON', 'BELTZ', 'BELYEA', 'BEM', 'BEMAN', 'BEMER', 'BEN', 'BENAC', 'BENCH', 'BENCROFT', 'BENDER', 'BENDER/COLLINGER', 'BENDER/WAIT', 'BENDER/WOOD', 'BENECKER', 'BENEDICK', 'BENEDICT', 'BENEDICT/COLE', 'BENEDICT/COVERLY', 'BENEDICT/CRAWFORD', 'BENEDICT/DAFOE', 'BENEKER', 'BENERDICT', 'BENERE', 'BENETEAU', 'BENETEAU/LABALEINE', 'BENFORD', 'BENHAM', 'BENINGER', 'BENITEAU', 'BENJAMIN', 'BENKER', 'BENKLEY', 'BENLEY', 'BENN', 'BENN/BEHN', 'BENN/FITCHETE', 'BENNER', 'BENNER/HOUCK', 'BENNET', 'BENNETT', 'BENNIER', 'BENNINGER', 'BENNINGHAM', 'BENNINGTON', 'BENNITT', 'BENNS', 'BENO', 'BENOIT', 'BENSACK', 'BENSEN', 'BENSON', 'BENSON/SAMSON', 'BENSON/SCHARAMAHAN', 'BENSON/SHEA', 'BENTLEY', 'BENTON', 'BENVILL', 'BENVILLE', 'BERCKLY', 'BERCSY', 'BERCY', 'BERCZY', 'BERDAN', 'BERDAN/McKENZIE', 'BERDEBT/STEEL', 'BERDEN', 'BERFORD', 'BERGAR', 'BERGEN', 'BERGER', 'BERGER/TINKLE', 'BERGIN', 'BERGON', 'BERHAM', 'BERINGER', 'BERISFORD', 'BERKEY', 'BERKLES', 'BERN', 'BERN/BEN', 'BERNARD', 'BERNARD/LARIVI?RE', 'BERNARDIN', 'BERNASH', 'BERNER', 'BERNIER', 'BERNINGER', 'BERO', 'BERREL', 'BERRIE', 'BERRY', 'BERTHEAUME', 'BERTHELET', 'BERTHIAUME', 'BERTLE', 'BERTLES', 'BERTRAND', 'BERTRAND/BERTRAN', 'BERTRON', 'BERUBE', 'BERY', 'BESENERE', 'BESENET', 'BESSE', 'BESSEE', 'BESSEY', 'BESSEY/BESSY', 'BESSIGER/BOSSIGER', 'BEST', 'BESWETHERICK', 'BESWICK', 'BESWICKE', 'BETHAN', 'BETHUME', 'BETHUNE', 'BETHUNE/SMITH', 'BETRON', 'BETRY', 'BETTERIDGE', 'BETTES', 'BETTIE', 'BETTIS', 'BETTON', 'BETTRIDGE', 'BETTS', 'BETTUNE', 'BETTY', 'BETTY/ORSER', 'BETTYS', 'BETZNER', 'BEVANS', 'BEVEAY', 'BEVEN', 'BEVERIDGE', 'BEVIS', 'BEWELL', 'BEWLEY', 'BEYERS', 'BEYNON', 'BEZER', 'BICE', 'BICE/UMPHRY', 'BICKELL', 'BICKERSON', 'BICKET', 'BICKFORD', 'BICKHAM', 'BIDOUT', 'BIDWELL', 'BIEKIE', 'BIGCRAFT', 'BIGCROFT', 'BIGELOW', 'BIGELOW/COLE', 'BIGFORD', 'BIGGAR', 'BIGGAR/COLTMAN', 'BIGGER', 'BIGGINS', 'BIGHAM', 'BIGNELL', 'BIGRAS', 'BILES', 'BILLEDEAUX', 'BILLIDOE', 'BILLIET', 'BILLING', 'BILLINGS', 'BILLINGS/DAVY', 'BILLINGS/GRAHAM', 'BILLINGSBY', 'BILLOPP', 'BILLS', 'BILOW/ALGIRE', 'BILROSE/BONESTEEL', 'BILTON', 'BINAULT', 'BINGHAM', 'BINGHAM/BOWMAN', 'BINGHAM/HUFFMAN', 'BINGHAM/LAPTHORNE', 'BINGLE', 'BINIKER/BINICHER', 'BINKLY', 'BIRCH', 'BIRD', 'BIRD/CARSON', 'BIRDS', 'BIRDSALL', 'BIRDSELL', 'BIRMINGHAM', 'BIRNEY', 'BIRNIE', 'BIRRELL', 'BISHOP', 'BISLEY/BISBEE', 'BISSEL', 'BISSELL', 'BISSELL/CLARK', 'BISSET', 'BISSETT', 'BISSIL', 'BISSONET', 'BISSONNETTE', 'BLACK', 'BLACK/CROSS', 'BLACK/PICKLE', 'BLACKBURN', 'BLACKBURN/BAKER', 'BLACKBURNE', 'BLACKBURNS', 'BLACKELY', 'BLACKER', 'BLACKER/MEYERS', 'BLACKIE', 'BLACKLEY', 'BLACKLOCK', 'BLACKLY', 'BLACKLY/COLE', 'BLACKMAN', 'BLACKMOR', 'BLACKNEY', 'BLACKSOCK', 'BLACKSTOCK', 'BLACKWAY', 'BLACKWELL', 'BLACKWOOD', 'BLADGEN', 'BLADGET', 'BLAIR', 'BLAIR/ORO', 'BLAIR/YOUNG', 'BLAKE', 'BLAKE/ADAMS', 'BLAKELEY', 'BLAKELY', 'BLAKEMORE', 'BLAKENEY', 'BLAKER', 'BLAKER/BLEECKER', 'BLAKER/MEYERS', 'BLAKESBY', 'BLAKESLEY', 'BLAKEY', 'BLAKLEY', 'BLAKLEY/BENNIT', 'BLAKLY', 'BLAKNEY', 'BLAM', 'BLANCHARD', 'BLANCHARD/RUSH', 'BLANCHER', 'BLANCHET', 'BLANCHFILL', 'BLANCO', 'BLAND/CAMPBELL', 'BLANEY', 'BLANN', 'BLASDELL', 'BLAUVELT', 'BLAYLOCK', 'BLEACHUM', 'BLEAKLY', 'BLEAM', 'BLEECKER', 'BLEEKER', 'BLEEKER/MEYERS', 'BLENEY', 'BLETCHER', 'BLEVINS', 'BLEW', 'BLEWETT', 'BLEWITT', 'BLEZARD', 'BLINN', 'BLISS', 'BLIZARD', 'BLODGET/WHEELER', 'BLODGETT', 'BLOM', 'BLOOM', 'BLOOMFIELD', 'BLOOR', 'BLOSDOLL', 'BLOUNT', 'BLOVIN', 'BLUCHERS', 'BLUCKER', 'BLUE', 'BLUEMAN', 'BLUETT', 'BLUM', 'BLUNDEN', 'BLUNT', 'BLYTH', 'BLYTH/CORBMAN', 'BOALAN', 'BOARDMAN/WINTERS', 'BOBIER', 'BOCAUT', 'BOCHET', 'BOCHUS', 'BOCKUS', 'BOCKUS/SHAVER', 'BODDINGTON', 'BODDY', 'BODIN', 'BODINE', 'BODY', 'BOG', 'BOGARD', 'BOGART', 'BOGART/BENEDICT', 'BOGERT', 'BOGGS', 'BOGUE', 'BOHAN', 'BOHANNON', 'BOICE', 'BOICE/AMEY', 'BOICE/CUSHMAN', 'BOICE/SCHRIVER', 'BOID', 'BOILS', 'BOIRE', 'BOISE', 'BOISEAU', 'BOISMIER', 'BOISNISER', 'BOISVERT', 'BOITON', 'BOLAND', 'BOLBY', 'BOLDUC', 'BOLE', 'BOLES', 'BOLLARD', 'BOLSTER', 'BOLTE', 'BOLTON', 'BOLTON/BOULTON', 'BOLTON/BUELL', 'BOLWELL', 'BOMBARDIER', 'BONBERGIER', 'BOND', 'BOND/PATTERSON', 'BONDIE', 'BONDRAY', 'BONDY', 'BONE', 'BONEAU', 'BONER', 'BONESTEAL', 'BONESTEEL', 'BONESTIEL', 'BONGARD', 'BONKER', 'BONKER/CORTEN', 'BONNELL', 'BONNER', 'BONNET', 'BONNETT', 'BONNEY', 'BONNYCASTLE', 'BONSACK', 'BONSER', 'BONSTED', 'BONSTEEL', 'BONSTEEL/CONWAY', 'BONTER', 'BONTER/DEMPSEY', 'BONTER/PEAK', 'BONYARD', 'BOODLE', 'BOODY', 'BOOK', 'BOOMER', 'BOORDEN', 'BOORMAN', 'BOOS', 'BOOTH', 'BOOTH/DALY', 'BOOTH/NORMAN', 'BOOTHROYD', 'BORCKHOLDER', 'BORDEN', 'BORDEN/SEELEY', 'BORGHONDER', 'BORING', 'BORKHOLDER', 'BORLAND', 'BORNUM', 'BORPY', 'BORRELLY', 'BORRIE', 'BORUGHTON/DENNIS', 'BOSQUET', 'BOSQUET/COX', 'BOSS', 'BOSS/AINSLEY', 'BOSSE', 'BOSSENIE', 'BOSSET/SMITH', 'BOSSU/LEONNAIS', 'BOSTICK', 'BOSTLY', 'BOSTON', 'BOSTWICK', 'BOSTWICKS', 'BOSWELL', 'BOSWICK', 'BOTHWELL', 'BOTSFORD', 'BOTTERILL', 'BOTTOM', 'BOTTON', 'BOTTON/CURRY', 'BOTTUM', 'BOUCH', 'BOUCH?', 'BOUCHE', 'BOUCHER', 'BOUCHER DE BOUCHERVILLE', 'BOUCHERVILLE', 'BOUCHETTE', 'BOUCHETTE/BERTHELET', 'BOUCHNER', 'BOUCK', 'BOUCK/DILLABAUGH', 'BOUCKE', 'BOUDETTE', 'BOUDREAU', 'BOUET', 'BOUFFARD', 'BOUGENER', 'BOUGHMAN', 'BOUGHNER', 'BOUGHNER/GLOVER', 'BOUGHNER/MATHEWS', 'BOUGHSLAUCH', 'BOUKE', 'BOUKER', 'BOULANGER', 'BOULBY', 'BOULD', 'BOULGER', 'BOULLARD', 'BOULT', 'BOULTER/PEACK', 'BOULTON', 'BOULTON/BELLANY', 'BOULTON/BOTTON', 'BOULTON/CURRY', 'BOULTON/ELLIOT', 'BOULTON/ELLIOTT', 'BOULTON/JONES', 'BOULTON/REDMAN', 'BOURASSA', 'BOURBONNIER', 'BOURCHIER', 'BOURDETT', 'BOURDETT/STEEL', 'BOURDETTE', 'BOURGET', 'BOURJOTTE/LESPERANCE', 'BOURK', 'BOURKE', 'BOURNS', 'BOUS', 'BOUSLAUGH', 'BOUSSEY', 'BOUTHELLIER', 'BOUTHILLIER', 'BOUTILLET', 'BOUTILLIER', 'BOUTIN', 'BOVARD', 'BOWAN', 'BOWBEER', 'BOWBEER/BREWER', 'BOWBIER', 'BOWDEN', 'BOWEN', 'BOWEN/CARMAN', 'BOWEN/CULBERTSON', 'BOWEN/DEMOREST', 'BOWEN/DIMONT', 'BOWEN/KIMMERLY', 'BOWEN/PALMER', 'BOWEN/PORT', 'BOWEN/RISELAY', 'BOWEN/SHAVER', 'BOWENS', 'BOWER', 'BOWERMAN', 'BOWERMAN/MORDEN', 'BOWERS', 'BOWES', 'BOWIE', 'BOWIE/BUIES', 'BOWKER', 'BOWKET', 'BOWKETT', 'BOWLBY', 'BOWLES', 'BOWLEY', 'BOWLING', 'BOWMAN', 'BOWMAN/BELLINGER', 'BOWMAN/BOUKE', 'BOWMAN/CLARK', 'BOWMAN/DEFOREST', 'BOWMAN/MATLACK', 'BOWN', 'BOWNEY', 'BOWRON', 'BOWSER/BOWSEN', 'BOWSFIELD', 'BOXALL', 'BOYCE', 'BOYCE/HARTMAN', 'BOYD', 'BOYD/McINTIRE', 'BOYDE', 'BOYEA', 'BOYER', 'BOYER/COMER', 'BOYERS', 'BOYES', 'BOYL', 'BOYLAN', 'BOYLE', 'BOYLES', 'BOYS', 'BOYSEE', 'BOYTON', 'BRACK', 'BRACKBILL', 'BRACKEN', 'BRACKENREED', 'BRACKENRIDGE', 'BRACKETT', 'BRACKIN', 'BRACKLEY', 'BRADBENT', 'BRADBURN', 'BRADBURNE', 'BRADEY', 'BRADFORD', 'BRADFORD/SELEE', 'BRADISH', 'BRADLEY', 'BRADLEY/MOOR', 'BRADLY', 'BRADNER', 'BRADNOCK', 'BRADSHAW', 'BRADSHAW/COLLINS', 'BRADSHAW/DIAMOND', 'BRADSHAW/LARUE', 'BRADSHAW/VANDERLISS', 'BRADSTEAD/AULT', 'BRADT', 'BRADT/BENDER', 'BRADT/HAINER', 'BRADT/YOUNG', 'BRADWELL', 'BRADY', 'BRAGG', 'BRAILY', 'BRAKENRIDGE', 'BRALY', 'BRAMORSKEY', 'BRAMORSKY', 'BRAMOUSKY', 'BRANAGAN', 'BRANAN', 'BRANDON', 'BRANDT', 'BRANDTS', 'BRANDTS/BRANTS', 'BRANDYMAN', 'BRANDYMANN', 'BRANIGAN', 'BRANNAGH', 'BRANNAH', 'BRANNAN', 'BRANNEGAN', 'BRANNEN', 'BRANNON', 'BRANT', 'BRANT/DESERONTWE', 'BRANTFORD/REED', 'BRANTS', 'BRASH', 'BRASS', 'BRASS/MATTICE', 'BRASS/MATTIN', 'BRASS/ROUSEHORNE', 'BRATH', 'BRATT', 'BRAUNCIS', 'BRAY', 'BRAY/ANDERSON', 'BRAYLEY', 'BRAYLEY/LAW', 'BRAYTON', 'BRAYTON/WEART', 'BRAZEY', 'BRAZIL', 'BRAZLE', 'BREAD', 'BREADEN', 'BREADNER', 'BREADON', 'BREADY', 'BREAK', 'BREAKENRIDGE', 'BREAKENRIGHT', 'BREAKY', 'BREARLY', 'BREATHWAITE', 'BREAULT', 'BREBNER', 'BRECKAN', 'BRECKON', 'BREEN', 'BREGARE', 'BREINICH', 'BREMBLE', 'BREMICH', 'BREMMER', 'BREMNER', 'BRENAGH', 'BRENAN', 'BRENEMAN', 'BRENNAN', 'BRENNAN/PETERSON', 'BRENNEN', 'BRENT', 'BRENTON', 'BRESEE', 'BRESNAHAN', 'BRESSE', 'BRESSEE', 'BRETHWAITH', 'BRETNER', 'BRETT', 'BREWER', 'BREWERTON', 'BREZE', 'BREZEE', 'BRIAN', 'BRICE', 'BRICK', 'BRICKER', 'BRICKMAN', 'BRICOT', 'BRIDGAM', 'BRIDGE', 'BRIDGEFORD', 'BRIDGEMAN', 'BRIDGES', 'BRIDGEWATER', 'BRIDGLAND', 'BRIDGMAN', 'BRIEN', 'BRIENLY', 'BRIERLY', 'BRIGGS', 'BRIGHAM', 'BRIGHAM/BREWSTER', 'BRIGHT', 'BRIGS', 'BRIKIE', 'BRILL', 'BRILLARD', 'BRILLINGER', 'BRIMMER', 'BRINDLEY', 'BRINK', 'BRINK/BRADT', 'BRINKERHOOF', 'BRINKMAN', 'BRINLEY', 'BRINSMEAD', 'BRINTNALL', 'BRIODY', 'BRISARD', 'BRISBOIS', 'BRISCO', 'BRISCOE', 'BRISCOE/BELL', 'BRISLANE', 'BRISON', 'BRISTOE', 'BRISTOL', 'BRITAIN', 'BRITAIN/BRITTIN', 'BRITTON', 'BROAD', 'BROADBANT', 'BROADBENT', 'BROADIE', 'BROADWICK', 'BROCK', 'BRODAY', 'BRODDY', 'BRODEUR', 'BRODIE', 'BRODRICK', 'BRODY', 'BROEFFEL/BREEFFEL', 'BROFFEL', 'BROFFEY', 'BROGDEN', 'BROGDIN', 'BROGDON', 'BROMLY/ROSS', 'BROOK', 'BROOKE', 'BROOKER', 'BROOKES', 'BROOKING', 'BROOKS', 'BROOKS/BARRETT', 'BROOKS/BENEDICT', 'BROOKS/COCKMAN', 'BROOKS/COLE', 'BROOKS/CORBMAN', 'BROOKS/MEDDAUGH', 'BROOKS/TURGERSON', 'BROOKSBANK', 'BROOME', 'BROOMHEAD', 'BROONER', 'BROPHEY', 'BROPHY', 'BROSE', 'BROTHERS', 'BROTHERSTON', 'BROUGH', 'BROUGHMAN', 'BROUGHTON', 'BROUK', 'BROUSE', 'BROUSE/ADAMS', 'BROUSE/BOUCK', 'BROUSE/CARMAN', 'BROUSE/KARMAN', 'BROUSE/PARLOW', 'BROUSE/SHAVER', 'BROUSTER', 'BROWCE', 'BROWCE/COON', 'BROWDERS', 'BROWER', 'BROWN', 'BROWN/COON', 'BROWN/FAIRFIELD', 'BROWN/FERGUSON', 'BROWN/FREEMAN', 'BROWN/HAWEN', 'BROWN/HURLBURT', 'BROWN/JUDSON', 'BROWN/MATICE', 'BROWN/MCILMOYLE', 'BROWN/MCLEAN', 'BROWN/MOTT', 'BROWN/MULLOY', 'BROWN/McINTIRE', 'BROWN/NICHOLSON', 'BROWN/ROBBINS', 'BROWN/SNIDER', 'BROWNE', 'BROWNELL', 'BROWNELL/CLINE', 'BROWNELL/COUNTRY', 'BROWNELL/SERVICE', 'BROWNELLE/BROWNHILL', 'BROWNLEE', 'BROWNLEY', 'BROWNLIE', 'BROWNLY', 'BROWNSON', 'BROWNSON/HAFFMAN', 'BROWNWICK', 'BROWSE', 'BRUCE', 'BRUCE/DAVY', 'BRUCK', 'BRUEN', 'BRUGERE', 'BRULE', 'BRUMGET', 'BRUMIGEM', 'BRUMIGEM/BRUMIGEN', 'BRUMWELL', 'BRUND', 'BRUNDAGE', 'BRUNDAGE/YOUREX', 'BRUNDEGE', 'BRUNDICH', 'BRUNDIDGE', 'BRUNDIGE', 'BRUNDREDGE', 'BRUNDRIDGE', 'BRUNELLE', 'BRUNER', 'BRUNGER', 'BRUNHERD', 'BRUNK', 'BRUNSON', 'BRUSH', 'BRUSH/CURRY', 'BRUSSEAUX', 'BRUSTER', 'BRUTON', 'BRUTON/FINNERON', 'BRYAN', 'BRYANS', 'BRYANT', 'BRYANT/McLEAN', 'BRYCE', 'BRYDEN', 'BRYDON', 'BRYDONE', 'BRYERS', 'BRYNES', 'BRYSON', 'BUCANNAN/BUCHANNAN/BUCKANNAN', 'BUCH', 'BUCHAM', 'BUCHAN', 'BUCHANAN', 'BUCHANAN &amp; BARKER', 'BUCHANAN/CRAWFORD', 'BUCHANAN/CRYSLER', 'BUCHANNAN', 'BUCHLEY', 'BUCHNER', 'BUCHNER/BOUGENER', 'BUCHNER/BOUGHNER', 'BUCHNER/BOUGHNER/AINSLEY', 'BUCHNER/BOUGNER', 'BUCHNER/BUGHGONER', 'BUCHNER/GRAHAM', 'BUCK', 'BUCK/BALDWIN', 'BUCK/BOUCH', 'BUCK/HAGERMAN', 'BUCK/HAGGART', 'BUCK/ORSER', 'BUCK/SNUKE', 'BUCKBOROUGH', 'BUCKHAM', 'BUCKHANAN/McDONELL', 'BUCKLEY', 'BUCKLEY/THOMAS', 'BUCKNER', 'BUCKNER/McGAN', 'BUDD', 'BUELL', 'BUELL/BAUCKE', 'BUELL/SHERWOOD', 'BUFFA', 'BUGBEE', 'BUGG', 'BUGGENER', 'BUGGIE', 'BUGIN', 'BUGLE LE', 'BUIE', 'BUIS', 'BUIS/AMEY', 'BUIS/BICE', 'BUISE', 'BUKER/BAKER', 'BUKER/FRENCH', 'BULEY', 'BULGER', 'BULHAM', 'BULKELEY', 'BULL', 'BULL/CLEMENT', 'BULLARD', 'BULLEN', 'BULLER', 'BULLES', 'BULLESS', 'BULLEY', 'BULLIN', 'BULLISS', 'BULLIVET', 'BULLIVIT', 'BULLOCK', 'BULLY', 'BULMAN', 'BULMER', 'BULSON', 'BULTEEL', 'BUMP', 'BUNBURRY', 'BUNBURY', 'BUNCE', 'BUNDIGE', 'BUNFIELD', 'BUNKER', 'BUNN', 'BUNTING', 'BUNTING/MARCKLE', 'BUNTON', 'BUNYAN', 'BURBANK', 'BURBANKS', 'BURBY', 'BURCH', 'BURCH/BIRCH', 'BURCHELL', 'BURCHILL', 'BURCK', 'BURCKHOLDER', 'BURD', 'BURDEN', 'BURDETT', 'BURDETT/BOURDETT', 'BURDICK', 'BURDOCK', 'BURDON', 'BURDS', 'BURDSELL', 'BURDSLEE', 'BUREAU', 'BURGAR', 'BURGART', 'BURGER', 'BURGES', 'BURGESS', 'BURGHAM', 'BURGHER', 'BURGHMANN', 'BURGIS', 'BURGISS', 'BURGOINE', 'BURGOYNE', 'BURK', 'BURKE', 'BURKET', 'BURKHOLDER', 'BURLEIGH', 'BURLEY', 'BURLEY/BALDWIN', 'BURLEY/LEE', 'BURLEY/SNIDER', 'BURLINGAME', 'BURLINGHAM/TANKEN', 'BURN', 'BURNELL', 'BURNES', 'BURNET', 'BURNET/VANARDEN', 'BURNETT', 'BURNETT/BAKER', 'BURNETT/COLLINGWOOD', 'BURNHAM', 'BURNHAM/AUGER', 'BURNHAM/CLAWSON', 'BURNHAM/FERGUSON', 'BURNHAM/HUFF', 'BURNITT', 'BURNS', 'BURNS/BYRNE', 'BURNSIDE', 'BURNSIDE/BROUSE', 'BURON', 'BURR', 'BURRELL', 'BURRETT', 'BURRILL', 'BURRISON', 'BURRISON/JOHNSTOWN', 'BURRIT', 'BURRIT/DULMAGE', 'BURRITT', 'BURROWES', 'BURROWS', 'BURRY', 'BURST', 'BURSTELL', 'BURT', 'BURTCH', 'BURTCH/BRADT', 'BURTCH/CORLIS', 'BURTCH/SEHRAM', 'BURTON', 'BURTON/ALGUIRE', 'BURWELL', 'BURWELL/BENEDICT', 'BURWELL/BISSELL', 'BURY', 'BUSCH', 'BUSH', 'BUSH/CROWDER', 'BUSHBY', 'BUSHEY', 'BUSHNELL', 'BUSNEY', 'BUSSELL', 'BUSVAK', 'BUTCH', 'BUTCHART', 'BUTCHER', 'BUTH', 'BUTLER', 'BUTLER/BERRIE', 'BUTLER/BOURDETT', 'BUTLER/COLTMAN', 'BUTLER/CROOKS', 'BUTLER/DAYTON', 'BUTLER/MATTHEWS', 'BUTLER/SLEMENT', 'BUTLER/STEVENS', 'BUTLER/WOOD', 'BUTTER', 'BUTTERFIELD', 'BUTTERFIELD/CLARK', 'BUTTERWORTH', 'BUTTLER', 'BUTTON', 'BUTTS', 'BUXTON', 'BUZBY', 'BY', 'BYAN', 'BYARD', 'BYARS', 'BYCRAFT', 'BYER', 'BYERLAY', 'BYERS', 'BYRNE', 'BYRNES', 'BYRNS', 'Babcock', 'Babcock/Lewis', 'Babcock/Ransier', 'Babcock/Scott', 'Babcock/Shannon', 'Babcock/Smith', 'Babcock/Wannamaker', 'Babcock/Wannomaker', 'Babcock/Weese', 'Babcook/Scott', 'Bachman', 'Bacon', 'Badcock', 'Badger', 'Badgerow', 'Badgley', 'Badichon/Labadie', 'Badwin', 'Bag', 'Bagley', 'Baice/Langhorn', 'Bailey', 'Bailey/McCarthy', 'Bailey/Sawyers', 'Baily', 'Bain', 'Baine', 'Baker', 'Baker/Miller', 'Baker/Skinner', 'Baker/Smith', 'Baker/Snyder', 'Baker/Wade', 'Baker/Waldorff', 'Baker/Young', 'Balance of land', 'Balderson', 'Baldwin', 'Baldwin/Webster', 'Bale', 'Ball', 'Ball/Long', 'Ball/Servos', 'Ball/Sweep', 'Ball/Walker', 'Ball/Wilkeson', 'Balmain/McDonell', 'Balton/Rose', 'Bamber', 'Banal Grist Mill', 'Banal Mill', 'Bannerman', 'Bannister', 'Banta/Vanwyck', 'Banter', 'Baptist Church', 'Baptist Church at Amherstburg.', 'Baptist Society', 'Baptists of the township of Artemesia.', 'Barber', 'Barckley/Outerkirk', 'Barckly/Markle', 'Barclay', 'Barclough', 'Barden', 'Barhigt', 'Bark/Lyons', 'Barkely/Shell', 'Barkley/Whiteker', 'Barkley/Witticker', 'Barkly/Marcellia/Massales', 'Barlow', 'Barnard/Nichols', 'Barnard/Randell', 'Barnard/Thomas', 'Barnard/Walker', 'Barnet/Landon', 'Barnet/Rood', 'Barnhart/Gallingher', 'Barnhart/MacDaniel', 'Barnhart/Marks', 'Barnhart/Rombough', 'Barnhart/Sills', 'Barnhart/Stinehoof', 'Barnhart/Stringer', 'Barnhart/Tilton', 'Barnheart/Runion', 'Barnheart/Waldenbarger', 'Barnrom', 'Barns', 'Barr', 'Barrie', 'Barrie &amp; Kempenfeldt Park Lots', 'Barrie (Market House Simco Dist.)', 'Barrie (Town lots for Jail &amp; Court House)', 'Barrie (Wesleyan Methodists Soc.)', 'Barrie (Wesleyan Methodists Society)', 'Barrie Members of the church of Scotland', 'Barrington', 'Barron', 'Barry', 'Bart', 'Bartels', 'Bartholomew', 'Bartlett', 'Bartley/Green', 'Bartley/Lyst', 'Bartley/Nicholson', 'Bartley/Shewman', 'Bartlough', 'Bartly/Green', 'Barton', 'Barton/Shatford', 'Barton/Smades', 'Barton/Smedes', 'Barton/Thomson', 'Barton/Wiley', 'Bartram', 'Baseer', 'Basset', 'Bassey/Smith', 'Bastedo', 'Bastedo/Rogers', 'Bastian/Stewart', 'Bates/Ghent', 'Bath Circuit, Wesleyan Methodist Church', 'Bathurst', 'Bathurst District Clergy Reserves', 'Batter/Merkley', 'Batter/Wright', 'Battiam', 'Battian', 'Baxter', 'Bay Indians', 'Bay de Chaleur (Timber Agency)', 'Bay of Quinte', 'Bayeaux/Vincent', 'Beach', 'Beach Lots', 'Beaches in Quebec', 'Beal', 'Beaman', 'Beard', 'Bearman', 'Beasley/Stegman', 'Beasley/Van Every', 'Beatie', 'Beatson', 'Beatys', 'BeauSoleil', 'Beaugrand', 'Beaumont', 'Beaver', 'Bebee/Smith', 'Becker', 'Becket', 'Beckwith', 'Bedal', 'Bedell', 'Bedford &amp; Sheffield (Clergy Reserves &amp; School lands)', 'Bedford, Reservation for Schools', 'Bedstead', 'Beeman', 'Beick', 'Beikie', 'Belding', 'Bell', 'Bell/Huff', 'Bell/Scott', 'Bell/Sharp', 'Bell/Sills', 'Bell/Switzer', 'Bell/Taylor', 'Bellamy', 'Bellar/Le Motte', 'Bellau', 'Bellaw', 'Belleperche', 'Belleville (Moira River)', 'Belleville town', 'Belleville, Minister &amp; Church Wardens of C. of E.', 'Belleville, President and Board of Police.', 'Belleville, Rev. Campbell for parsonage and glebe (C. of E.)', 'Belleville, church of England, parsonage and glebe (Rev. Thomas Campbell)', 'Bellows', 'Beman', 'Bencroft', 'Bender', 'Bender/Murry', 'Bender/Stelmayon', 'Bender/Wood', 'Benedict/Lossee', 'Benet', 'Benett', 'Benidick/Olds', 'Benn/Sills', 'Benn/Simmons', 'Benn/Soles', 'Bennet', 'Bennett', 'Bennitt', 'Benson', 'Benson/Richardson', 'Benson/Steel', 'Benson/Terell', 'Bent', 'Bentinck &amp; Glenelg School Section', 'Bentinck School Trustees', 'Bentley/Jayne', 'Benton', 'Berczy', 'Berdan/Thomson', 'Bergeron', 'Bernard', 'Berney', 'Bernier', 'Berry', 'Berry/Ulman', 'Berry/Willman', 'Bertram', 'Besserer', 'Bessey', 'Bessey/Price', 'Bessil/Michel', 'Bessy/Newkirk/Newcark', 'Best', 'Bethune', 'Bethune/McKenzie', 'Bethune/Wilkinson', 'Bettys', 'Bettys/Mahon', 'Bieges', 'Biggars', 'Bighard', 'Bignal', 'Bigsby', 'Bill', 'Billows', 'Bills', 'Birch', 'Birch/Rowel', 'Bird', 'Birdsale/McDonald', 'Birdsall', 'Birdsall/Shotwell', 'Birmingham', 'Birn', 'Bisco', 'Bishop', 'Bishop of Nova Scotia', 'Bishop of Quebec', 'Bishop of Toronto', 'Bishop of York', 'Bishop, Coadjutor and Administrator of Regiopolis', 'Bissell/Landon', 'Black', 'Black/Sparks', 'Black/Umphrey', 'Blackburn', 'Blackley/Murrison', 'Blackman', 'Blackwell', 'Blackwood', 'Blades', 'Blain', 'Blair', 'Blake', 'Blakeby/McDonald', 'Blakely/Mix', 'Blakely/Toppin', 'Blaker/Ripsom', 'Blakley/Ruscow', 'Blan', 'Blanchard', 'Blandford, Brock District (Purchase of Clergy Reserve)', 'Blasdell', 'Bleecker', 'Bleex', 'Blond', 'Blondheim', 'Board for Education', 'Board of Ordnance', 'Board of Police', 'Board of Police of town of Belleville.', 'Board of School Trustees', 'Board of Trustees of the Thomas County Grammar School', 'Board of Trustees, Grammar School', 'Board of Works', 'Boardman', 'Bodart', 'Bogart', 'Bogart/Spicer', 'Bogert/Matheson', 'Boice/McGuire', 'Boice/Springer', 'Boice/Van Wicklin', 'Boid/Shipman', 'Boies/Leonard', 'Boisbouscache village plot', 'Bolduc', 'Bolton', 'Bolton/Sax', 'Bond', 'Bone', 'Bonesteell/Willcox', 'Bonet', 'Bonnycastle', 'Bonsteel/Laushway', 'Bonsteel/Smith', 'Booth', 'Booth/Stalker', 'Booth/Terry', 'Boreson/Manhart', 'Borrat', 'Borrie', 'Borrit/Wright', 'Boshart', 'Bostwick', 'Bosworth', 'Botsford', 'Boucher', 'Boucher/Loucks', 'Bouchette/Reynolds', 'Bouchier', 'Bouchner/Willson', 'Bouchuer/Stringer', 'Bouck', 'Bouck/Garlough', 'Bouck/Reid', 'Boughner/Owen', 'Boughner/Willson', 'Boulton', 'Boulton/McMurphy', 'Boundary Commission', 'Boundary Lines', 'Boundary line the township Beverly', 'Boundary lines of lots', 'Bourne', 'Boutlon/Rawley', 'Bowac/Markle', 'Bowdish', 'Bowen', 'Bowen/More', 'Bowen/Sager', 'Bowen/Shaver', 'Bower/Scott', 'Bower/Worden', 'Bowerman', 'Bowers/Scott', 'Bowes', 'Bowie', 'Bowling/Goslee', 'Bowman', 'Bowman/Gisso', 'Bowman/Schram', 'Bowman/Scott', 'Bowman/Snure'</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -856,14 +856,14 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2247939</v>
+        <v>2247940</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>['Upper Canada Land Petitions']</t>
+          <t>['0', 'Upper Canada Land Petitions']</t>
         </is>
       </c>
     </row>
@@ -918,22 +918,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>RG 1 L3</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>807275</v>
+      </c>
+      <c r="S8" t="n">
         <v>3</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>RG 1 L3</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>807274</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>['RG 1 L3', 'RG 5 A1, Land Petitions in Upper Canada Sundries']</t>
+          <t>['0', 'RG 1 L3', 'RG 5 A1, Land Petitions in Upper Canada Sundries']</t>
         </is>
       </c>
     </row>
